--- a/umit_files_xlsx/umit_rus.xlsx
+++ b/umit_files_xlsx/umit_rus.xlsx
@@ -286,432 +286,411 @@
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексика")</f>
-        <v>Лексика</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Орфоэпия и лексика")</f>
+        <v>Орфоэпия и лексика</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Морфология")</f>
-        <v>Морфология</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Морфемика и слоообразование")</f>
+        <v>Морфемика и слоообразование</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Морфемика и слоообразование")</f>
-        <v>Морфемика и слоообразование</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изложение")</f>
+        <v>Изложение</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Фонетика и орфоэпия")</f>
-        <v>Фонетика и орфоэпия</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Итоговое собеседование")</f>
+        <v>Итоговое собеседование</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Текст. Создание текстов различных стилей")</f>
-        <v>Текст. Создание текстов различных стилей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа с текстом")</f>
+        <v>Работа с текстом</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Навыки и умения")</f>
-        <v>Навыки и умения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сочинение")</f>
+        <v>Сочинение</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа с текстом")</f>
-        <v>Работа с текстом</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сочинение ОГЭ")</f>
+        <v>Сочинение ОГЭ</v>
       </c>
       <c r="V1" s="1"/>
-      <c r="W1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сочинение")</f>
-        <v>Сочинение</v>
-      </c>
+      <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Корневая омонимия. Омонимия частей речи")</f>
-        <v>Корневая омонимия. Омонимия частей речи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание проверяемых гласных в корне слова")</f>
+        <v>Правописание проверяемых гласных в корне слова</v>
       </c>
       <c r="B2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания при прямой речи")</f>
-        <v>Знаки препинания при прямой речи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при передаче на письме чужой речи (прямая речь)")</f>
+        <v>Запятая при передаче на письме чужой речи (прямая речь)</v>
       </c>
       <c r="D2" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
         <v>101</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Словосочетание")</f>
-        <v>Словосочетание</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды связи словосочетания. Согласование")</f>
+        <v>Виды связи словосочетания. Согласование</v>
       </c>
       <c r="F2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),201.0)</f>
-        <v>201</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
+        <v>202</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формы именительного падежа множественного числа существительных")</f>
-        <v>Формы именительного падежа множественного числа существительных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ошибки в построении предложений с однородными членами")</f>
+        <v>Ошибки в построении предложений с однородными членами</v>
       </c>
       <c r="H2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),301.0)</f>
-        <v>301</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
+        <v>330</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Однозначные и многозначные слова")</f>
-        <v>Однозначные и многозначные слова</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Общеупотребительная лексика и лексика ограниченного употребления")</f>
+        <v>Общеупотребительная лексика и лексика ограниченного употребления</v>
       </c>
       <c r="J2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),401.0)</f>
-        <v>401</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
+        <v>404</v>
       </c>
       <c r="K2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Существительное")</f>
-        <v>Существительное</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ошибочное словообразование")</f>
+        <v>Ошибочное словообразование</v>
       </c>
       <c r="L2" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),501.0)</f>
         <v>501</v>
       </c>
       <c r="M2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Морфема")</f>
-        <v>Морфема</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Текст. Смысловая и композиционная целостность текста")</f>
+        <v>Текст. Смысловая и композиционная целостность текста</v>
       </c>
       <c r="N2" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),601.0)</f>
         <v>601</v>
       </c>
       <c r="O2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Звук и буква")</f>
-        <v>Звук и буква</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Владение всеми видами речевой деятельности (аудирование и чтение)")</f>
+        <v>Владение всеми видами речевой деятельности (аудирование и чтение)</v>
       </c>
       <c r="P2" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),701.0)</f>
         <v>701</v>
       </c>
       <c r="Q2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Текст. Смысловая и композиционная целостность текста")</f>
-        <v>Текст. Смысловая и композиционная целостность текста</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Антитеза")</f>
+        <v>Антитеза</v>
       </c>
       <c r="R2" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),801.0)</f>
         <v>801</v>
       </c>
       <c r="S2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Владение всеми видами речевой деятельности (аудирование и чтение)")</f>
-        <v>Владение всеми видами речевой деятельности (аудирование и чтение)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение проблемы")</f>
+        <v>Определение проблемы</v>
       </c>
       <c r="T2" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),901.0)</f>
         <v>901</v>
       </c>
       <c r="U2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вводные слова как средство связи")</f>
-        <v>Вводные слова как средство связи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Структура сочинения ОГЭ")</f>
+        <v>Структура сочинения ОГЭ</v>
       </c>
       <c r="V2" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1001.0)</f>
         <v>1001</v>
       </c>
-      <c r="W2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знание структуры итогового сочинения")</f>
-        <v>Знание структуры итогового сочинения</v>
-      </c>
-      <c r="X2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1101.0)</f>
-        <v>1101</v>
-      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание проверяемых гласных в корне слова")</f>
-        <v>Правописание проверяемых гласных в корне слова</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание непроверяемых гласных в корне слова")</f>
+        <v>Правописание непроверяемых гласных в корне слова</v>
       </c>
       <c r="B3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в предложениях с однородными членами, связанными бессоюзной связью")</f>
-        <v>Пунктуация в предложениях с однородными членами, связанными бессоюзной связью</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с однородными членами, связанными бессоюзной связью")</f>
+        <v>Пунктуация в простом предложении с однородными членами, связанными бессоюзной связью</v>
       </c>
       <c r="D3" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),102.0)</f>
         <v>102</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды связи словосочетания. Согласование")</f>
-        <v>Виды связи словосочетания. Согласование</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды связи словосочетания. Управление")</f>
+        <v>Виды связи словосочетания. Управление</v>
       </c>
       <c r="F3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
-        <v>202</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),203.0)</f>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формы родительного падежа множественного числа существительных")</f>
-        <v>Формы родительного падежа множественного числа существительных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нарушение в построении предложения с причастным оборотом")</f>
+        <v>Нарушение в построении предложения с причастным оборотом</v>
       </c>
       <c r="H3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),302.0)</f>
-        <v>302</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),331.0)</f>
+        <v>331</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прямое и переносное значения слова")</f>
-        <v>Прямое и переносное значения слова</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Исконно русская лексика")</f>
+        <v>Исконно русская лексика</v>
       </c>
       <c r="J3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),402.0)</f>
-        <v>402</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),405.0)</f>
+        <v>405</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Собственные и нарицательные существительные")</f>
-        <v>Собственные и нарицательные существительные</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Морфема")</f>
+        <v>Морфема</v>
       </c>
       <c r="L3" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),502.0)</f>
         <v>502</v>
       </c>
       <c r="M3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Чередования гласных")</f>
-        <v>Чередования гласных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тема")</f>
+        <v>Тема</v>
       </c>
       <c r="N3" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),602.0)</f>
         <v>602</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Фонетическая транскрипция")</f>
-        <v>Фонетическая транскрипция</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Владение разными видами чтения (поисковым, просмотровым, ознакомительным, изучающим) текстов разных стилей и жанров")</f>
+        <v>Владение разными видами чтения (поисковым, просмотровым, ознакомительным, изучающим) текстов разных стилей и жанров</v>
       </c>
       <c r="P3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),702.0)</f>
-        <v>702</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),703.0)</f>
+        <v>703</v>
       </c>
       <c r="Q3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тема")</f>
-        <v>Тема</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анафора")</f>
+        <v>Анафора</v>
       </c>
       <c r="R3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),802.0)</f>
-        <v>802</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),803.0)</f>
+        <v>803</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понимание информации устного и письменного сообщения (темы, основной мысли, основной и дополнительной информации)")</f>
-        <v>Понимание информации устного и письменного сообщения (темы, основной мысли, основной и дополнительной информации)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулирование примеров-иллюстраций из прочитанного текста")</f>
+        <v>Формулирование примеров-иллюстраций из прочитанного текста</v>
       </c>
       <c r="T3" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),902.0)</f>
         <v>902</v>
       </c>
       <c r="U3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формы слова как средство связи")</f>
-        <v>Формы слова как средство связи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Раскрытие содержания высказывания лингвиста")</f>
+        <v>Раскрытие содержания высказывания лингвиста</v>
       </c>
       <c r="V3" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1002.0)</f>
         <v>1002</v>
       </c>
-      <c r="W3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение комментировать авторские высказывания на различные темы")</f>
-        <v>Умение комментировать авторские высказывания на различные темы</v>
-      </c>
-      <c r="X3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1102.0)</f>
-        <v>1102</v>
-      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Форма слова. Однокоренные слова")</f>
-        <v>Форма слова. Однокоренные слова</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание безударных чередующихся гласных в корне слова, зависящих от суффикса -а-")</f>
+        <v>Правописание безударных чередующихся гласных в корне слова, зависящих от суффикса -а-</v>
       </c>
       <c r="B4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в предложениях с однородными членами, связанными одиночным соединительным или разделительным союзом")</f>
-        <v>Пунктуация в предложениях с однородными членами, связанными одиночным соединительным или разделительным союзом</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с однородными членами, связанными повторяющимися союзами, которые обозначают устойчивое выражение")</f>
+        <v>Пунктуация в простом предложении с однородными членами, связанными повторяющимися союзами, которые обозначают устойчивое выражение</v>
       </c>
       <c r="D4" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
         <v>103</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды связи словосочетания. Управление")</f>
-        <v>Виды связи словосочетания. Управление</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды связи словосочетания. Примыкание")</f>
+        <v>Виды связи словосочетания. Примыкание</v>
       </c>
       <c r="F4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),203.0)</f>
-        <v>203</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),204.0)</f>
+        <v>204</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление глагольных форм")</f>
-        <v>Нормативное образование и употребление глагольных форм</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нарушение в построении предложения с деепричастным оборотом")</f>
+        <v>Нарушение в построении предложения с деепричастным оборотом</v>
       </c>
       <c r="H4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),303.0)</f>
-        <v>303</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),332.0)</f>
+        <v>332</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Омонимы")</f>
-        <v>Омонимы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Заимствованная лексика")</f>
+        <v>Заимствованная лексика</v>
       </c>
       <c r="J4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),403.0)</f>
-        <v>403</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),406.0)</f>
+        <v>406</v>
       </c>
       <c r="K4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Склонение существительных.")</f>
-        <v>Склонение существительных.</v>
-      </c>
-      <c r="L4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),503.0)</f>
-        <v>503</v>
-      </c>
-      <c r="M4" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Чередования согласных")</f>
         <v>Чередования согласных</v>
+      </c>
+      <c r="L4" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),504.0)</f>
+        <v>504</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Микротема")</f>
+        <v>Микротема</v>
       </c>
       <c r="N4" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),603.0)</f>
         <v>603</v>
       </c>
       <c r="O4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласные звуки и гласные буквы")</f>
-        <v>Гласные звуки и гласные буквы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пересказ текста с включением цитаты")</f>
+        <v>Пересказ текста с включением цитаты</v>
       </c>
       <c r="P4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),703.0)</f>
-        <v>703</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),707.0)</f>
+        <v>707</v>
       </c>
       <c r="Q4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Микротема")</f>
-        <v>Микротема</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Антонимы (Контекстные антонимы)")</f>
+        <v>Антонимы (Контекстные антонимы)</v>
       </c>
       <c r="R4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),803.0)</f>
-        <v>803</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),808.0)</f>
+        <v>808</v>
       </c>
       <c r="S4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Владение разными видами чтения (поисковым, просмотровым, ознакомительным, изучающим) текстов разных стилей и жанров")</f>
-        <v>Владение разными видами чтения (поисковым, просмотровым, ознакомительным, изучающим) текстов разных стилей и жанров</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пояснение примеров-иллюстраций")</f>
+        <v>Пояснение примеров-иллюстраций</v>
       </c>
       <c r="T4" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),903.0)</f>
         <v>903</v>
       </c>
       <c r="U4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Однокоренные слова как средство связи")</f>
-        <v>Однокоренные слова как средство связи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Раскрытие содержания фрагмента текста")</f>
+        <v>Раскрытие содержания фрагмента текста</v>
       </c>
       <c r="V4" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1003.0)</f>
         <v>1003</v>
       </c>
-      <c r="W4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение формулировать свою позицию и доказывать её")</f>
-        <v>Умение формулировать свою позицию и доказывать её</v>
-      </c>
-      <c r="X4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1103.0)</f>
-        <v>1103</v>
-      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание непроверяемых гласных в корне слова")</f>
-        <v>Правописание непроверяемых гласных в корне слова</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание неизменяемых приставок")</f>
+        <v>Правописание неизменяемых приставок</v>
       </c>
       <c r="B5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
-        <v>4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в предложениях с однородными членами, связанными противительным союзом")</f>
-        <v>Пунктуация в предложениях с однородными членами, связанными противительным союзом</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с однородными членами, связанными противительным союзом")</f>
+        <v>Пунктуация в простом предложении с однородными членами, связанными противительным союзом</v>
       </c>
       <c r="D5" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104.0)</f>
         <v>104</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды связи словосочетания. Примыкание")</f>
-        <v>Виды связи словосочетания. Примыкание</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синонимичные словосочетания")</f>
+        <v>Синонимичные словосочетания</v>
       </c>
       <c r="F5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),204.0)</f>
-        <v>204</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),205.0)</f>
+        <v>205</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное употребление повелительного наклонения глаголов")</f>
-        <v>Нормативное употребление повелительного наклонения глаголов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нарушение в построении предложения с несогласованным приложением")</f>
+        <v>Нарушение в построении предложения с несогласованным приложением</v>
       </c>
       <c r="H5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),304.0)</f>
-        <v>304</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
+        <v>333</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синонимы")</f>
-        <v>Синонимы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Старославянизмы")</f>
+        <v>Старославянизмы</v>
       </c>
       <c r="J5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
-        <v>404</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),407.0)</f>
+        <v>407</v>
       </c>
       <c r="K5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Род существительных")</f>
-        <v>Род существительных</v>
-      </c>
-      <c r="L5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),504.0)</f>
-        <v>504</v>
-      </c>
-      <c r="M5" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Корень")</f>
         <v>Корень</v>
+      </c>
+      <c r="L5" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),505.0)</f>
+        <v>505</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приёмы сжатия. Исключение. Замена. Обобщение")</f>
+        <v>Приёмы сжатия. Исключение. Замена. Обобщение</v>
       </c>
       <c r="N5" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),604.0)</f>
         <v>604</v>
       </c>
       <c r="O5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Согласные звуки и согласные буквы")</f>
-        <v>Согласные звуки и согласные буквы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Использование синонимические ресурсы языка для более точного выражения мысли и усиления выразительности речи")</f>
+        <v>Использование синонимические ресурсы языка для более точного выражения мысли и усиления выразительности речи</v>
       </c>
       <c r="P5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),704.0)</f>
-        <v>704</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),719.0)</f>
+        <v>719</v>
       </c>
       <c r="Q5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приёмы сжатия. Исключение. Замена. Обобщение")</f>
-        <v>Приёмы сжатия. Исключение. Замена. Обобщение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метафора")</f>
+        <v>Метафора</v>
       </c>
       <c r="R5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),804.0)</f>
-        <v>804</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),809.0)</f>
+        <v>809</v>
       </c>
       <c r="S5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Восприятие на слух текстов разных стилей и жанров")</f>
-        <v>Восприятие на слух текстов разных стилей и жанров</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смысловая связь между примерами-иллюстрациями и её анализ")</f>
+        <v>Смысловая связь между примерами-иллюстрациями и её анализ</v>
       </c>
       <c r="T5" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),904.0)</f>
         <v>904</v>
       </c>
       <c r="U5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Союз как средство связи")</f>
-        <v>Союз как средство связи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулирование комментария")</f>
+        <v>Формулирование комментария</v>
       </c>
       <c r="V5" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1004.0)</f>
@@ -724,88 +703,88 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание чередующихся гласных в корне слова, зависящих от суффикса -а-")</f>
-        <v>Правописание чередующихся гласных в корне слова, зависящих от суффикса -а-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание приставок на -З и -С")</f>
+        <v>Правописание приставок на -З и -С</v>
       </c>
       <c r="B6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
-        <v>5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в предложениях с однородными членами, связанными повторяющимися союзами")</f>
-        <v>Пунктуация в предложениях с однородными членами, связанными повторяющимися союзами</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с однородными членами, связанными повторяющимися союзами")</f>
+        <v>Пунктуация в простом предложении с однородными членами, связанными повторяющимися союзами</v>
       </c>
       <c r="D6" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
         <v>105</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синонимичные словосочетания")</f>
-        <v>Синонимичные словосочетания</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способы выражения подлежащего")</f>
+        <v>Способы выражения подлежащего</v>
       </c>
       <c r="F6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),205.0)</f>
-        <v>205</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),206.0)</f>
+        <v>206</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное употребление сравнительной и превосходной степени имён прилагательных")</f>
-        <v>Нормативное употребление сравнительной и превосходной степени имён прилагательных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неправильное построение предложения с косвенной речью")</f>
+        <v>Неправильное построение предложения с косвенной речью</v>
       </c>
       <c r="H6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),305.0)</f>
-        <v>305</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),334.0)</f>
+        <v>334</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Антонимы")</f>
-        <v>Антонимы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексическое видоизменение фразеологизма")</f>
+        <v>Лексическое видоизменение фразеологизма</v>
       </c>
       <c r="J6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),405.0)</f>
-        <v>405</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),408.0)</f>
+        <v>408</v>
       </c>
       <c r="K6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Несклоняемые существительные")</f>
-        <v>Несклоняемые существительные</v>
-      </c>
-      <c r="L6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),505.0)</f>
-        <v>505</v>
-      </c>
-      <c r="M6" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Словообразующие и формообразующие морфемы")</f>
         <v>Словообразующие и формообразующие морфемы</v>
+      </c>
+      <c r="L6" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),506.0)</f>
+        <v>506</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основная мысль")</f>
+        <v>Основная мысль</v>
       </c>
       <c r="N6" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),605.0)</f>
         <v>605</v>
       </c>
       <c r="O6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Глухие и звонкие согласные звуки")</f>
-        <v>Глухие и звонкие согласные звуки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иметь представление об историческом развитии русского языка и истории русского языкознания")</f>
+        <v>Иметь представление об историческом развитии русского языка и истории русского языкознания</v>
       </c>
       <c r="P6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),705.0)</f>
-        <v>705</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),720.0)</f>
+        <v>720</v>
       </c>
       <c r="Q6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основная мысль")</f>
-        <v>Основная мысль</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эпитет")</f>
+        <v>Эпитет</v>
       </c>
       <c r="R6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),805.0)</f>
-        <v>805</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),810.0)</f>
+        <v>810</v>
       </c>
       <c r="S6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Владение разными видами аудирования (выборочным, ознакомительным, детальным)")</f>
-        <v>Владение разными видами аудирования (выборочным, ознакомительным, детальным)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение авторской позиции")</f>
+        <v>Определение авторской позиции</v>
       </c>
       <c r="T6" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),905.0)</f>
         <v>905</v>
       </c>
       <c r="U6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Частицы как средство связи")</f>
-        <v>Частицы как средство связи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Раскрытие содержания понятия")</f>
+        <v>Раскрытие содержания понятия</v>
       </c>
       <c r="V6" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1005.0)</f>
@@ -818,80 +797,80 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание чередующихся гласных в корне слова, зависящих от согласной буквы на конце корня")</f>
-        <v>Правописание чередующихся гласных в корне слова, зависящих от согласной буквы на конце корня</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласные в приставках, зависящие от ударения")</f>
+        <v>Гласные в приставках, зависящие от ударения</v>
       </c>
       <c r="B7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
-        <v>6</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в предложениях с однородными членами, связанными двойным союзом")</f>
-        <v>Пунктуация в предложениях с однородными членами, связанными двойным союзом</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с однородными членами, связанными двойным союзом")</f>
+        <v>Пунктуация в простом предложении с однородными членами, связанными двойным союзом</v>
       </c>
       <c r="D7" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
         <v>106</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способы выражения подлежащего")</f>
-        <v>Способы выражения подлежащего</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способы выражения сказуемого")</f>
+        <v>Способы выражения сказуемого</v>
       </c>
       <c r="F7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),206.0)</f>
-        <v>206</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),207.0)</f>
+        <v>207</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление причастий и деепричастий")</f>
-        <v>Нормативное образование и употребление причастий и деепричастий</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ошибки в построении сложного предложения")</f>
+        <v>Ошибки в построении сложного предложения</v>
       </c>
       <c r="H7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),306.0)</f>
-        <v>306</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),335.0)</f>
+        <v>335</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Устаревшая лексика. Архаизмы, историзмы")</f>
-        <v>Устаревшая лексика. Архаизмы, историзмы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Паронимы")</f>
+        <v>Паронимы</v>
       </c>
       <c r="J7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),406.0)</f>
-        <v>406</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
+        <v>409</v>
       </c>
       <c r="K7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разносклоняемые существительные")</f>
-        <v>Разносклоняемые существительные</v>
-      </c>
-      <c r="L7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),506.0)</f>
-        <v>506</v>
-      </c>
-      <c r="M7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приставка")</f>
         <v>Приставка</v>
       </c>
+      <c r="L7" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),507.0)</f>
+        <v>507</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разговорный стиль речи")</f>
+        <v>Разговорный стиль речи</v>
+      </c>
       <c r="N7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),606.0)</f>
-        <v>606</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),618.0)</f>
+        <v>618</v>
       </c>
       <c r="O7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Позиционное оглушение / озвончение")</f>
-        <v>Позиционное оглушение / озвончение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проводить самостоятельный поиск текстовой и нетекстовой информации")</f>
+        <v>Проводить самостоятельный поиск текстовой и нетекстовой информации</v>
       </c>
       <c r="P7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),706.0)</f>
-        <v>706</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),723.0)</f>
+        <v>723</v>
       </c>
       <c r="Q7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проблема. Способы формулировки проблемы")</f>
-        <v>Проблема. Способы формулировки проблемы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сравнение")</f>
+        <v>Сравнение</v>
       </c>
       <c r="R7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),806.0)</f>
-        <v>806</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),811.0)</f>
+        <v>811</v>
       </c>
       <c r="S7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение сопоставлять и сравнивать речевые высказывания с точки зрения их содержания и стилистических особенностей")</f>
-        <v>Умение сопоставлять и сравнивать речевые высказывания с точки зрения их содержания и стилистических особенностей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулирование и обоснование своей позиции")</f>
+        <v>Формулирование и обоснование своей позиции</v>
       </c>
       <c r="T7" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),906.0)</f>
@@ -906,28 +885,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание чередующихся гласных в корне слова, зависящих от ударения")</f>
-        <v>Правописание чередующихся гласных в корне слова, зависящих от ударения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание приставок ПРА- и ПРО-")</f>
+        <v>Правописание приставок ПРА- и ПРО-</v>
       </c>
       <c r="B8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
-        <v>7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в предложениях с однородными членами, соединёнными попарно")</f>
-        <v>Пунктуация в предложениях с однородными членами, соединёнными попарно</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с однородными членами, соединёнными попарно")</f>
+        <v>Пунктуация в простом предложении с однородными членами, соединёнными попарно</v>
       </c>
       <c r="D8" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
         <v>107</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способы выражения сказуемого")</f>
-        <v>Способы выражения сказуемого</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Простое глагольное сказуемое")</f>
+        <v>Простое глагольное сказуемое</v>
       </c>
       <c r="F8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),207.0)</f>
-        <v>207</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),208.0)</f>
+        <v>208</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление местоимений")</f>
@@ -938,48 +917,48 @@
         <v>307</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неологизмы")</f>
-        <v>Неологизмы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Плеоназм")</f>
+        <v>Плеоназм</v>
       </c>
       <c r="J8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),407.0)</f>
-        <v>407</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
+        <v>416</v>
       </c>
       <c r="K8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Существительные общего рода")</f>
-        <v>Существительные общего рода</v>
-      </c>
-      <c r="L8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),507.0)</f>
-        <v>507</v>
-      </c>
-      <c r="M8" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффикс")</f>
         <v>Суффикс</v>
       </c>
+      <c r="L8" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),508.0)</f>
+        <v>508</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Повествование")</f>
+        <v>Повествование</v>
+      </c>
       <c r="N8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),607.0)</f>
-        <v>607</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),619.0)</f>
+        <v>619</v>
       </c>
       <c r="O8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Твердые и мягкие согласные звуки")</f>
-        <v>Твердые и мягкие согласные звуки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отбирать и анализировать полученную информацию")</f>
+        <v>Отбирать и анализировать полученную информацию</v>
       </c>
       <c r="P8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),707.0)</f>
-        <v>707</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),724.0)</f>
+        <v>724</v>
       </c>
       <c r="Q8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вступление")</f>
-        <v>Вступление</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метонимия")</f>
+        <v>Метонимия</v>
       </c>
       <c r="R8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),807.0)</f>
-        <v>807</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),812.0)</f>
+        <v>812</v>
       </c>
       <c r="S8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение воспроизводить прослушанный или прочитанный текст (план, пересказ, конспект, аннотация)")</f>
-        <v>Умение воспроизводить прослушанный или прочитанный текст (план, пересказ, конспект, аннотация)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знание структуры итогового сочинения")</f>
+        <v>Знание структуры итогового сочинения</v>
       </c>
       <c r="T8" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),907.0)</f>
@@ -994,80 +973,80 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание чередующихся гласных в корне слова, зависящих от лексического значения")</f>
-        <v>Правописание чередующихся гласных в корне слова, зависящих от лексического значения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание приставок ПРЕ-/ПРИ-")</f>
+        <v>Правописание приставок ПРЕ-/ПРИ-</v>
       </c>
       <c r="B9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в предложениях с однородными членами, соединёнными попарно")</f>
-        <v>Пунктуация в предложениях с однородными членами, соединёнными попарно</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире в предложении с однородными членами и обобщающим словом")</f>
+        <v>Тире в предложении с однородными членами и обобщающим словом</v>
       </c>
       <c r="D9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
-        <v>108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),109.0)</f>
+        <v>109</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Простое глагольное сказуемое")</f>
-        <v>Простое глагольное сказуемое</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Составное глагольное сказуемое")</f>
+        <v>Составное глагольное сказуемое</v>
       </c>
       <c r="F9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),208.0)</f>
-        <v>208</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
+        <v>209</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формы собирательных числительных")</f>
-        <v>Формы собирательных числительных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неправильное употребление падежной формы существительного")</f>
+        <v>Неправильное употребление падежной формы существительного</v>
       </c>
       <c r="H9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),308.0)</f>
-        <v>308</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
+        <v>309</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Общеупотребительная лексика и лексика ограниченного употребления")</f>
-        <v>Общеупотребительная лексика и лексика ограниченного употребления</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тавтология")</f>
+        <v>Тавтология</v>
       </c>
       <c r="J9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),408.0)</f>
-        <v>408</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),417.0)</f>
+        <v>417</v>
       </c>
       <c r="K9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Аббревиатуры")</f>
-        <v>Аббревиатуры</v>
-      </c>
-      <c r="L9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),508.0)</f>
-        <v>508</v>
-      </c>
-      <c r="M9" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Интерфикс")</f>
         <v>Интерфикс</v>
       </c>
+      <c r="L9" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),509.0)</f>
+        <v>509</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Интонация. Темп чтения")</f>
+        <v>Интонация. Темп чтения</v>
+      </c>
       <c r="N9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),608.0)</f>
-        <v>608</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),620.0)</f>
+        <v>620</v>
       </c>
       <c r="O9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Позиционное смягчение согласных")</f>
-        <v>Позиционное смягчение согласных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Оценивать стилистические ресурсы языка")</f>
+        <v>Оценивать стилистические ресурсы языка</v>
       </c>
       <c r="P9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),708.0)</f>
-        <v>708</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),725.0)</f>
+        <v>725</v>
       </c>
       <c r="Q9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Комментарий")</f>
-        <v>Комментарий</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гипербола")</f>
+        <v>Гипербола</v>
       </c>
       <c r="R9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),808.0)</f>
-        <v>808</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),813.0)</f>
+        <v>813</v>
       </c>
       <c r="S9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение создавать устные и письменные тексты разных типов, стилей речи и жанров с учетом замысла и ситуации общения")</f>
-        <v>Умение создавать устные и письменные тексты разных типов, стилей речи и жанров с учетом замысла и ситуации общения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение комментировать авторские высказывания на различные темы")</f>
+        <v>Умение комментировать авторские высказывания на различные темы</v>
       </c>
       <c r="T9" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),908.0)</f>
@@ -1082,80 +1061,80 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание неизменяемых приставок")</f>
-        <v>Правописание неизменяемых приставок</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласные Ы/И после приставок")</f>
+        <v>Гласные Ы/И после приставок</v>
       </c>
       <c r="B10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в предложениях с однородными членами и обобщающим словом")</f>
-        <v>Пунктуация в предложениях с однородными членами и обобщающим словом</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Однородные и неоднородные определения")</f>
+        <v>Однородные и неоднородные определения</v>
       </c>
       <c r="D10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),109.0)</f>
-        <v>109</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Составное глагольное сказуемое")</f>
-        <v>Составное глагольное сказуемое</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Составное именное сказуемое")</f>
+        <v>Составное именное сказуемое</v>
       </c>
       <c r="F10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
-        <v>209</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),210.0)</f>
+        <v>210</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ошибки, связанные с неправильным употреблением падежной формы имени существительного с предлогом")</f>
-        <v>Ошибки, связанные с неправильным употреблением падежной формы имени существительного с предлогом</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нарушение связи между подлежащим и сказуемым")</f>
+        <v>Нарушение связи между подлежащим и сказуемым</v>
       </c>
       <c r="H10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
-        <v>309</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),310.0)</f>
+        <v>310</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Диалектизмы")</f>
-        <v>Диалектизмы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Этические нормы")</f>
+        <v>Этические нормы</v>
       </c>
       <c r="J10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
-        <v>409</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),420.0)</f>
+        <v>420</v>
       </c>
       <c r="K10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Число существительных")</f>
-        <v>Число существительных</v>
-      </c>
-      <c r="L10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),509.0)</f>
-        <v>509</v>
-      </c>
-      <c r="M10" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Постфикс")</f>
         <v>Постфикс</v>
       </c>
+      <c r="L10" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),510.0)</f>
+        <v>510</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды чтения. Использование различных видов чтения в зависимости от коммуникативной задачи и характера текста")</f>
+        <v>Виды чтения. Использование различных видов чтения в зависимости от коммуникативной задачи и характера текста</v>
+      </c>
       <c r="N10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),609.0)</f>
-        <v>609</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),622.0)</f>
+        <v>622</v>
       </c>
       <c r="O10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Упрощение групп согласных (непроизносимый согласный)")</f>
-        <v>Упрощение групп согласных (непроизносимый согласный)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Соблюдать культуру чтения, говорения, аудирования и письма")</f>
+        <v>Соблюдать культуру чтения, говорения, аудирования и письма</v>
       </c>
       <c r="P10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),709.0)</f>
-        <v>709</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),728.0)</f>
+        <v>728</v>
       </c>
       <c r="Q10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иллюстрация. Пояснение")</f>
-        <v>Иллюстрация. Пояснение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литота")</f>
+        <v>Литота</v>
       </c>
       <c r="R10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),809.0)</f>
-        <v>809</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),814.0)</f>
+        <v>814</v>
       </c>
       <c r="S10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способность свободно излагать свои мысли в устной и письменной форме")</f>
-        <v>Способность свободно излагать свои мысли в устной и письменной форме</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение формулировать свою позицию и доказывать её")</f>
+        <v>Умение формулировать свою позицию и доказывать её</v>
       </c>
       <c r="T10" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),909.0)</f>
@@ -1170,80 +1149,74 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание изменяемых приставок")</f>
-        <v>Правописание изменяемых приставок</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание разделительных Ъ/Ь")</f>
+        <v>Правописание разделительных Ъ/Ь</v>
       </c>
       <c r="B11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
-        <v>10</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Однородные и неоднородные определения")</f>
-        <v>Однородные и неоднородные определения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания при обращении")</f>
+        <v>Знаки препинания при обращении</v>
       </c>
       <c r="D11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
-        <v>110</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
+        <v>111</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Составное именное сказуемое")</f>
-        <v>Составное именное сказуемое</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Простое предложение")</f>
+        <v>Простое предложение</v>
       </c>
       <c r="F11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),210.0)</f>
-        <v>210</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
+        <v>211</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ошибки, связанные с нарушением связи между подлежащим и сказуемым")</f>
-        <v>Ошибки, связанные с нарушением связи между подлежащим и сказуемым</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нарушение видовременной соотнесённости глагольных форм")</f>
+        <v>Нарушение видовременной соотнесённости глагольных форм</v>
       </c>
       <c r="H11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),310.0)</f>
-        <v>310</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),311.0)</f>
+        <v>311</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Специальная лексика. Термины, профессионализмы")</f>
-        <v>Специальная лексика. Термины, профессионализмы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Орфоэпические нормы")</f>
+        <v>Орфоэпические нормы</v>
       </c>
       <c r="J11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),410.0)</f>
-        <v>410</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),423.0)</f>
+        <v>423</v>
       </c>
       <c r="K11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Существительные singularia и pluralia tantum")</f>
-        <v>Существительные singularia и pluralia tantum</v>
-      </c>
-      <c r="L11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),510.0)</f>
-        <v>510</v>
-      </c>
-      <c r="M11" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окончание")</f>
         <v>Окончание</v>
       </c>
-      <c r="N11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),610.0)</f>
-        <v>610</v>
-      </c>
+      <c r="L11" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),511.0)</f>
+        <v>511</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
       <c r="O11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ударение в существительных")</f>
-        <v>Ударение в существительных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Редактировать устные и письменные тексты различных стилей и жанров")</f>
+        <v>Редактировать устные и письменные тексты различных стилей и жанров</v>
       </c>
       <c r="P11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),710.0)</f>
-        <v>710</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),739.0)</f>
+        <v>739</v>
       </c>
       <c r="Q11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смысловая связь и её анализ")</f>
-        <v>Смысловая связь и её анализ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ирония")</f>
+        <v>Ирония</v>
       </c>
       <c r="R11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),810.0)</f>
-        <v>810</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),815.0)</f>
+        <v>815</v>
       </c>
       <c r="S11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способность соблюдать нормы построения текста (логичность, последовательность, связность, соответствие теме и др.)")</f>
-        <v>Способность соблюдать нормы построения текста (логичность, последовательность, связность, соответствие теме и др.)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знание структуры сочинения ЕГЭ")</f>
+        <v>Знание структуры сочинения ЕГЭ</v>
       </c>
       <c r="T11" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),910.0)</f>
@@ -1258,85 +1231,73 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Глухие и звонкие звуки")</f>
-        <v>Глухие и звонкие звуки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ОНЬК-, -ЕНЬК-")</f>
+        <v>Суффиксы существительных -ОНЬК-, -ЕНЬК-</v>
       </c>
       <c r="B12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
-        <v>11</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21.0)</f>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания при обращении")</f>
-        <v>Знаки препинания при обращении</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация при вводных словах (конструкциях)")</f>
+        <v>Пунктуация при вводных словах (конструкциях)</v>
       </c>
       <c r="D12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
-        <v>111</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
+        <v>112</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Простое предложение. Двусоставные предложения")</f>
-        <v>Простое предложение. Двусоставные предложения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Распространённые предложения")</f>
+        <v>Распространённые предложения</v>
       </c>
       <c r="F12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
-        <v>211</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),212.0)</f>
+        <v>212</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ошибки в ошибки, связанные с нарушением видовременной соотнесённости глагольных форм")</f>
-        <v>Ошибки в ошибки, связанные с нарушением видовременной соотнесённости глагольных форм</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ошибки в употреблении имени числительного")</f>
+        <v>Ошибки в употреблении имени числительного</v>
       </c>
       <c r="H12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),311.0)</f>
-        <v>311</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
+        <v>312</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Жаргонная лексика. Сленг")</f>
-        <v>Жаргонная лексика. Сленг</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексическая сочетаемость")</f>
+        <v>Лексическая сочетаемость</v>
       </c>
       <c r="J12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),411.0)</f>
-        <v>411</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),424.0)</f>
+        <v>424</v>
       </c>
       <c r="K12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Падежи существительных")</f>
-        <v>Падежи существительных</v>
-      </c>
-      <c r="L12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),511.0)</f>
-        <v>511</v>
-      </c>
-      <c r="M12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основа")</f>
         <v>Основа</v>
       </c>
-      <c r="N12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),611.0)</f>
-        <v>611</v>
-      </c>
+      <c r="L12" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),512.0)</f>
+        <v>512</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ударение в прилагательных")</f>
-        <v>Ударение в прилагательных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проведение различных видов анализа слова (фонетического, морфемного, словообразовательного, лексического, морфологического)")</f>
+        <v>Проведение различных видов анализа слова (фонетического, морфемного, словообразовательного, лексического, морфологического)</v>
       </c>
       <c r="P12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),711.0)</f>
-        <v>711</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),740.0)</f>
+        <v>740</v>
       </c>
       <c r="Q12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способы отсылки к тексту. Пересказ, цитата, номера предложений")</f>
-        <v>Способы отсылки к тексту. Пересказ, цитата, номера предложений</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Повествование")</f>
+        <v>Повествование</v>
       </c>
       <c r="R12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),811.0)</f>
-        <v>811</v>
-      </c>
-      <c r="S12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способность адекватно выражать свое отношение к фактам и явлениям окружающей действительности")</f>
-        <v>Способность адекватно выражать свое отношение к фактам и явлениям окружающей действительности</v>
-      </c>
-      <c r="T12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),911.0)</f>
-        <v>911</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),816.0)</f>
+        <v>816</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -1346,85 +1307,73 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласные в приставках, зависящие от ударения")</f>
-        <v>Гласные в приставках, зависящие от ударения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ОК-")</f>
+        <v>Суффиксы существительных -ОК-</v>
       </c>
       <c r="B13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
-        <v>12</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в предложениях с вводными конструкциями")</f>
-        <v>Пунктуация в предложениях с вводными конструкциями</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания при обособленных определениях")</f>
+        <v>Знаки препинания при обособленных определениях</v>
       </c>
       <c r="D13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
-        <v>112</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
+        <v>113</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Распространённые предложения")</f>
-        <v>Распространённые предложения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Осложнённые предложения")</f>
+        <v>Осложнённые предложения</v>
       </c>
       <c r="F13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),212.0)</f>
-        <v>212</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
+        <v>213</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ошибки в употреблении имени числительного")</f>
-        <v>Ошибки в употреблении имени числительного</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нарушение управления")</f>
+        <v>Нарушение управления</v>
       </c>
       <c r="H13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
-        <v>312</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),315.0)</f>
+        <v>315</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Стилистические пласты лексики. Нейтральная, высокая, книжная, разговорная, просторечная")</f>
-        <v>Стилистические пласты лексики. Нейтральная, высокая, книжная, разговорная, просторечная</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Звук и буква")</f>
+        <v>Звук и буква</v>
       </c>
       <c r="J13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.0)</f>
-        <v>412</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
+        <v>425</v>
       </c>
       <c r="K13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окончание существительных")</f>
-        <v>Окончание существительных</v>
-      </c>
-      <c r="L13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),512.0)</f>
-        <v>512</v>
-      </c>
-      <c r="M13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сокращение производящей основы")</f>
         <v>Сокращение производящей основы</v>
       </c>
-      <c r="N13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),612.0)</f>
-        <v>612</v>
-      </c>
+      <c r="L13" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),513.0)</f>
+        <v>513</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
       <c r="O13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ударение в наречиях")</f>
-        <v>Ударение в наречиях</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в предложении с однородными членами (синтаксический анализ)")</f>
+        <v>Запятая в предложении с однородными членами (синтаксический анализ)</v>
       </c>
       <c r="P13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),712.0)</f>
-        <v>712</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),741.0)</f>
+        <v>741</v>
       </c>
       <c r="Q13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Авторская позиция")</f>
-        <v>Авторская позиция</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Описание")</f>
+        <v>Описание</v>
       </c>
       <c r="R13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),812.0)</f>
-        <v>812</v>
-      </c>
-      <c r="S13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Владение различными видами монолога (повествование, описание, рассуждение, сочетание разных видов монолога)")</f>
-        <v>Владение различными видами монолога (повествование, описание, рассуждение, сочетание разных видов монолога)</v>
-      </c>
-      <c r="T13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),912.0)</f>
-        <v>912</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),817.0)</f>
+        <v>817</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -1434,85 +1383,73 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласные в приставках ПРО-/ПРА-")</f>
-        <v>Гласные в приставках ПРО-/ПРА-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ИК-/-ЕК-")</f>
+        <v>Суффиксы существительных -ИК-/-ЕК-</v>
       </c>
       <c r="B14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
-        <v>13</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в предложениях с обособленными определениями")</f>
-        <v>Пунктуация в предложениях с обособленными определениями</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания при обособленных обстоятельствах")</f>
+        <v>Знаки препинания при обособленных обстоятельствах</v>
       </c>
       <c r="D14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
-        <v>113</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Осложнённые предложения")</f>
-        <v>Осложнённые предложения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Односоставные предложения")</f>
+        <v>Односоставные предложения</v>
       </c>
       <c r="F14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
-        <v>213</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
+        <v>222</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ошибочное словообразование")</f>
-        <v>Ошибочное словообразование</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первообразные прилагательные")</f>
+        <v>Первообразные прилагательные</v>
       </c>
       <c r="H14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
-        <v>313</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),317.0)</f>
+        <v>317</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Исконно русская лексика")</f>
-        <v>Исконно русская лексика</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Фонетическая транскрипция")</f>
+        <v>Фонетическая транскрипция</v>
       </c>
       <c r="J14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
-        <v>413</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),426.0)</f>
+        <v>426</v>
       </c>
       <c r="K14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Глагол")</f>
-        <v>Глагол</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приставочный способ образования")</f>
+        <v>Приставочный способ образования</v>
       </c>
       <c r="L14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),513.0)</f>
-        <v>513</v>
-      </c>
-      <c r="M14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложение")</f>
-        <v>Сложение</v>
-      </c>
-      <c r="N14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),613.0)</f>
-        <v>613</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),515.0)</f>
+        <v>515</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
       <c r="O14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ударение в глаголах")</f>
-        <v>Ударение в глаголах</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иметь представление о роли, значении и функциях русского языка")</f>
+        <v>Иметь представление о роли, значении и функциях русского языка</v>
       </c>
       <c r="P14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),713.0)</f>
-        <v>713</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),742.0)</f>
+        <v>742</v>
       </c>
       <c r="Q14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тезис. Собственная позиция")</f>
-        <v>Тезис. Собственная позиция</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рассуждение")</f>
+        <v>Рассуждение</v>
       </c>
       <c r="R14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),813.0)</f>
-        <v>813</v>
-      </c>
-      <c r="S14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Владение различными видами диалога")</f>
-        <v>Владение различными видами диалога</v>
-      </c>
-      <c r="T14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),913.0)</f>
-        <v>913</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),818.0)</f>
+        <v>818</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -1522,85 +1459,73 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание приставок ПРЕ-/ПРИ-")</f>
-        <v>Правописание приставок ПРЕ-/ПРИ-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ИЦ-/-ЕЦ-")</f>
+        <v>Суффиксы существительных -ИЦ-/-ЕЦ-</v>
       </c>
       <c r="B15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
-        <v>14</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в предложениях с обособленными приложениями")</f>
-        <v>Пунктуация в предложениях с обособленными приложениями</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в предложении со сравнительным оборотом")</f>
+        <v>Запятая в предложении со сравнительным оборотом</v>
       </c>
       <c r="D15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),114.0)</f>
-        <v>114</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
+        <v>118</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дополнение")</f>
-        <v>Дополнение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Назывные предложения")</f>
+        <v>Назывные предложения</v>
       </c>
       <c r="F15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
-        <v>214</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),223.0)</f>
+        <v>223</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нарушение согласования")</f>
-        <v>Нарушение согласования</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Производная и производящая основа")</f>
+        <v>Производная и производящая основа</v>
       </c>
       <c r="H15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),314.0)</f>
-        <v>314</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),318.0)</f>
+        <v>318</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Заимствованная лексика")</f>
-        <v>Заимствованная лексика</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласные звуки и гласные буквы")</f>
+        <v>Гласные звуки и гласные буквы</v>
       </c>
       <c r="J15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),414.0)</f>
-        <v>414</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),427.0)</f>
+        <v>427</v>
       </c>
       <c r="K15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Переходные и непереходные глаголы")</f>
-        <v>Переходные и непереходные глаголы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксальный способ образования")</f>
+        <v>Суффиксальный способ образования</v>
       </c>
       <c r="L15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),514.0)</f>
-        <v>514</v>
-      </c>
-      <c r="M15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приставочный способ образования")</f>
-        <v>Приставочный способ образования</v>
-      </c>
-      <c r="N15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),614.0)</f>
-        <v>614</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),516.0)</f>
+        <v>516</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
       <c r="O15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ударение в причастиях")</f>
-        <v>Ударение в причастиях</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знание качеств, свойств и норм речи")</f>
+        <v>Знание качеств, свойств и норм речи</v>
       </c>
       <c r="P15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),714.0)</f>
-        <v>714</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),743.0)</f>
+        <v>743</v>
       </c>
       <c r="Q15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обоснование (аргументация)")</f>
-        <v>Обоснование (аргументация)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулировки, обозначающие отношения между предложениями")</f>
+        <v>Формулировки, обозначающие отношения между предложениями</v>
       </c>
       <c r="R15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),814.0)</f>
-        <v>814</v>
-      </c>
-      <c r="S15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Соблюдение в практике речевого общения основных орфоэпических, лексических норм современного русского языка")</f>
-        <v>Соблюдение в практике речевого общения основных орфоэпических, лексических норм современного русского языка</v>
-      </c>
-      <c r="T15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),914.0)</f>
-        <v>914</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),819.0)</f>
+        <v>819</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -1610,85 +1535,73 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Омонимия приставок ПРЕ-/ПРИ-")</f>
-        <v>Омонимия приставок ПРЕ-/ПРИ-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффикс существительного -К- в сочетаниях -ИНК-/-ЕНК- и суффикс -ИНК-")</f>
+        <v>Суффикс существительного -К- в сочетаниях -ИНК-/-ЕНК- и суффикс -ИНК-</v>
       </c>
       <c r="B16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
-        <v>15</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в предложениях с обособленными обстоятельствами.")</f>
-        <v>Пунктуация в предложениях с обособленными обстоятельствами.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в ССП")</f>
+        <v>Знаки препинания в ССП</v>
       </c>
       <c r="D16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
-        <v>115</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
+        <v>119</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прямое и косвенное дпоплнение")</f>
-        <v>Прямое и косвенное дпоплнение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определённо-личные предложения")</f>
+        <v>Определённо-личные предложения</v>
       </c>
       <c r="F16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),215.0)</f>
-        <v>215</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
+        <v>224</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нарушение управления")</f>
-        <v>Нарушение управления</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Морфемный разбор")</f>
+        <v>Морфемный разбор</v>
       </c>
       <c r="H16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),315.0)</f>
-        <v>315</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),319.0)</f>
+        <v>319</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Старославянизмы")</f>
-        <v>Старославянизмы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Согласные звуки и согласные буквы")</f>
+        <v>Согласные звуки и согласные буквы</v>
       </c>
       <c r="J16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
-        <v>415</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),428.0)</f>
+        <v>428</v>
       </c>
       <c r="K16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Возвратные и невозвратные глаголы")</f>
-        <v>Возвратные и невозвратные глаголы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приставочно-суффиксальный способ образования")</f>
+        <v>Приставочно-суффиксальный способ образования</v>
       </c>
       <c r="L16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),515.0)</f>
-        <v>515</v>
-      </c>
-      <c r="M16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксальный способ образования")</f>
-        <v>Суффиксальный способ образования</v>
-      </c>
-      <c r="N16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),615.0)</f>
-        <v>615</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),517.0)</f>
+        <v>517</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
       <c r="O16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ударение в деепричастиях")</f>
-        <v>Ударение в деепричастиях</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знание структуры ЕГЭ и ориентирование в распределении баллов")</f>
+        <v>Знание структуры ЕГЭ и ориентирование в распределении баллов</v>
       </c>
       <c r="P16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),715.0)</f>
-        <v>715</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),744.0)</f>
+        <v>744</v>
       </c>
       <c r="Q16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Заключение")</f>
-        <v>Заключение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексический анализ слова в тексте")</f>
+        <v>Лексический анализ слова в тексте</v>
       </c>
       <c r="R16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),815.0)</f>
-        <v>815</v>
-      </c>
-      <c r="S16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Соблюдение в практике речевого общения основных грамматических, стилистических норм современного русского языка")</f>
-        <v>Соблюдение в практике речевого общения основных грамматических, стилистических норм современного русского языка</v>
-      </c>
-      <c r="T16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),915.0)</f>
-        <v>915</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),820.0)</f>
+        <v>820</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -1698,79 +1611,67 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слова, не зависящие от значения приставок ПРЕ-/ПРИ-, где подобное сочетание букв является частью корня")</f>
-        <v>Слова, не зависящие от значения приставок ПРЕ-/ПРИ-, где подобное сочетание букв является частью корня</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ИНСТВ-/-ЕНСТВ-")</f>
+        <v>Суффиксы существительных -ИНСТВ-/-ЕНСТВ-</v>
       </c>
       <c r="B17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
-        <v>16</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в предложениях с обособленными обстоятельствами")</f>
-        <v>Пунктуация в предложениях с обособленными обстоятельствами</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в ССП с общей частью")</f>
+        <v>Знаки препинания в ССП с общей частью</v>
       </c>
       <c r="D17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),116.0)</f>
-        <v>116</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
+        <v>120</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение")</f>
-        <v>Определение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обобщённо-личные предложения")</f>
+        <v>Обобщённо-личные предложения</v>
       </c>
       <c r="F17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
-        <v>216</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
+        <v>225</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нарушение способа выражения сказуемого в отдельных конструкциях")</f>
-        <v>Нарушение способа выражения сказуемого в отдельных конструкциях</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексический разбор")</f>
+        <v>Лексический разбор</v>
       </c>
       <c r="H17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),316.0)</f>
-        <v>316</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),320.0)</f>
+        <v>320</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Фразеологизм")</f>
-        <v>Фразеологизм</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Упрощение групп согласных (непроизносимый согласный)")</f>
+        <v>Упрощение групп согласных (непроизносимый согласный)</v>
       </c>
       <c r="J17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
-        <v>416</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),433.0)</f>
+        <v>433</v>
       </c>
       <c r="K17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вид глагола")</f>
-        <v>Вид глагола</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нулевая суффиксация")</f>
+        <v>Нулевая суффиксация</v>
       </c>
       <c r="L17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),516.0)</f>
-        <v>516</v>
-      </c>
-      <c r="M17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приставочно-суффиксальный способ образования")</f>
-        <v>Приставочно-суффиксальный способ образования</v>
-      </c>
-      <c r="N17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),616.0)</f>
-        <v>616</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),518.0)</f>
+        <v>518</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Абзац")</f>
-        <v>Абзац</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определительные местоимения как средство связи")</f>
+        <v>Определительные местоимения как средство связи</v>
       </c>
       <c r="R17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),816.0)</f>
-        <v>816</v>
-      </c>
-      <c r="S17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Соблюдение основных правил орфографии и пунктуации в процессе письменного общения")</f>
-        <v>Соблюдение основных правил орфографии и пунктуации в процессе письменного общения</v>
-      </c>
-      <c r="T17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),916.0)</f>
-        <v>916</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),821.0)</f>
+        <v>821</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -1780,79 +1681,67 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласные Ы/И после приставок")</f>
-        <v>Гласные Ы/И после приставок</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -УШК-/-ЫШК-/-ИШК-")</f>
+        <v>Суффиксы существительных -УШК-/-ЫШК-/-ИШК-</v>
       </c>
       <c r="B18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
-        <v>17</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в предложениях с уточняющими членами предложения")</f>
-        <v>Пунктуация в предложениях с уточняющими членами предложения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в СПП")</f>
+        <v>Знаки препинания в СПП</v>
       </c>
       <c r="D18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
-        <v>117</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
+        <v>126</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Согласованное и несогласованное определение")</f>
-        <v>Согласованное и несогласованное определение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неопределённо личные предложения")</f>
+        <v>Неопределённо личные предложения</v>
       </c>
       <c r="F18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
-        <v>217</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),226.0)</f>
+        <v>226</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первообразные прилагательные")</f>
-        <v>Первообразные прилагательные</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Звукопись")</f>
+        <v>Звукопись</v>
       </c>
       <c r="H18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),317.0)</f>
-        <v>317</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
+        <v>321</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Паронимы")</f>
-        <v>Паронимы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексическое видоизменение фразеологизма")</f>
+        <v>Лексическое видоизменение фразеологизма</v>
       </c>
       <c r="J18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),417.0)</f>
-        <v>417</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),440.0)</f>
+        <v>440</v>
       </c>
       <c r="K18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Наклонения глагола")</f>
-        <v>Наклонения глагола</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Постфиксация")</f>
+        <v>Постфиксация</v>
       </c>
       <c r="L18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),517.0)</f>
-        <v>517</v>
-      </c>
-      <c r="M18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нулевая суффиксация")</f>
-        <v>Нулевая суффиксация</v>
-      </c>
-      <c r="N18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),617.0)</f>
-        <v>617</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),519.0)</f>
+        <v>519</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смысловая цельность и последовательность изложения")</f>
-        <v>Смысловая цельность и последовательность изложения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Жанр текста")</f>
+        <v>Жанр текста</v>
       </c>
       <c r="R18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),817.0)</f>
-        <v>817</v>
-      </c>
-      <c r="S18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Распознавать уровни и единицы языка в предъявленном тексте и видеть взаимосвязь между ними")</f>
-        <v>Распознавать уровни и единицы языка в предъявленном тексте и видеть взаимосвязь между ними</v>
-      </c>
-      <c r="T18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),917.0)</f>
-        <v>917</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),822.0)</f>
+        <v>822</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -1862,79 +1751,61 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иностранные приставки")</f>
-        <v>Иностранные приставки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неизменяемые суффиксы существительных (-изн-, -ин-, -отн-, -овн-, -еств-, -ниц-, -овин-, -евин-, -ет-, -от-, -ест-, -ост-)")</f>
+        <v>Неизменяемые суффиксы существительных (-изн-, -ин-, -отн-, -овн-, -еств-, -ниц-, -овин-, -евин-, -ет-, -от-, -ест-, -ост-)</v>
       </c>
       <c r="B19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
-        <v>18</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31.0)</f>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в предложениях с конструкциями, присоединяющимися при помощи КАК")</f>
-        <v>Пунктуация в предложениях с конструкциями, присоединяющимися при помощи КАК</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в СПП с однородными придаточными")</f>
+        <v>Знаки препинания в СПП с однородными придаточными</v>
       </c>
       <c r="D19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
-        <v>118</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),129.0)</f>
+        <v>129</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обстоятельство")</f>
-        <v>Обстоятельство</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Безличные предложения")</f>
+        <v>Безличные предложения</v>
       </c>
       <c r="F19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
-        <v>218</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),227.0)</f>
+        <v>227</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Производная и производящая основа")</f>
-        <v>Производная и производящая основа</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление форм причастий и деепричастий")</f>
+        <v>Нормативное образование и употребление форм причастий и деепричастий</v>
       </c>
       <c r="H19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),318.0)</f>
-        <v>318</v>
-      </c>
-      <c r="I19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метафора. Олицетворение")</f>
-        <v>Метафора. Олицетворение</v>
-      </c>
-      <c r="J19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),418.0)</f>
-        <v>418</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),329.0)</f>
+        <v>329</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Время глагола")</f>
-        <v>Время глагола</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Переход из одной части речи в другую")</f>
+        <v>Переход из одной части речи в другую</v>
       </c>
       <c r="L19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),518.0)</f>
-        <v>518</v>
-      </c>
-      <c r="M19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Постфиксация")</f>
-        <v>Постфиксация</v>
-      </c>
-      <c r="N19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),618.0)</f>
-        <v>618</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),520.0)</f>
+        <v>520</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Средства связи предложений. Лексические, морфологические, синтаксические")</f>
-        <v>Средства связи предложений. Лексические, морфологические, синтаксические</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Типы речи")</f>
+        <v>Типы речи</v>
       </c>
       <c r="R19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),818.0)</f>
-        <v>818</v>
-      </c>
-      <c r="S19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анализировать языковые средства, использованные в тексте")</f>
-        <v>Анализировать языковые средства, использованные в тексте</v>
-      </c>
-      <c r="T19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),918.0)</f>
-        <v>918</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),823.0)</f>
+        <v>823</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -1944,79 +1815,61 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание Ъ после приставок")</f>
-        <v>Правописание Ъ после приставок</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ЧИК-/ЩИК-")</f>
+        <v>Суффиксы существительных -ЧИК-/ЩИК-</v>
       </c>
       <c r="B20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
-        <v>19</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в ССП")</f>
-        <v>Знаки препинания в ССП</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация на стыке союзов")</f>
+        <v>Пунктуация на стыке союзов</v>
       </c>
       <c r="D20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
-        <v>119</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),130.0)</f>
+        <v>130</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разряды обстоятельства по значению")</f>
-        <v>Разряды обстоятельства по значению</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неполные предложения. Элипсис")</f>
+        <v>Неполные предложения. Элипсис</v>
       </c>
       <c r="F20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),219.0)</f>
-        <v>219</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),228.0)</f>
+        <v>228</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Морфемный разбор")</f>
-        <v>Морфемный разбор</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление имен числительных")</f>
+        <v>Нормативное образование и употребление имен числительных</v>
       </c>
       <c r="H20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),319.0)</f>
-        <v>319</v>
-      </c>
-      <c r="I20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эпитет")</f>
-        <v>Эпитет</v>
-      </c>
-      <c r="J20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
-        <v>419</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),336.0)</f>
+        <v>336</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лицо глагола")</f>
-        <v>Лицо глагола</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Словообразовательный разбор слова")</f>
+        <v>Словообразовательный разбор слова</v>
       </c>
       <c r="L20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),519.0)</f>
-        <v>519</v>
-      </c>
-      <c r="M20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Переход из одной части речи в другую")</f>
-        <v>Переход из одной части речи в другую</v>
-      </c>
-      <c r="N20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),619.0)</f>
-        <v>619</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),521.0)</f>
+        <v>521</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Учебно-научный, деловой, публицистический стили, разговорная речь, язык художественной литературы")</f>
-        <v>Учебно-научный, деловой, публицистический стили, разговорная речь, язык художественной литературы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Морфологические признаки")</f>
+        <v>Морфологические признаки</v>
       </c>
       <c r="R20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),819.0)</f>
-        <v>819</v>
-      </c>
-      <c r="S20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Комментирование авторских высказываний на различные темы (в том числе о богатстве и выразительности русского языка)")</f>
-        <v>Комментирование авторских высказываний на различные темы (в том числе о богатстве и выразительности русского языка)</v>
-      </c>
-      <c r="T20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),919.0)</f>
-        <v>919</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),824.0)</f>
+        <v>824</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -2026,79 +1879,61 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание Ь в корнях")</f>
-        <v>Правописание Ь в корнях</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ИЧ+К-/-ЕЧК-")</f>
+        <v>Суффиксы существительных -ИЧ+К-/-ЕЧК-</v>
       </c>
       <c r="B21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
-        <v>20</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в ССП с ОВЧ")</f>
-        <v>Знаки препинания в ССП с ОВЧ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в предложениях с разными видами связи")</f>
+        <v>Знаки препинания в предложениях с разными видами связи</v>
       </c>
       <c r="D21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
-        <v>120</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),131.0)</f>
+        <v>131</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обстоятельства места, времени, причины, цели, условия, уступки, образа действия, меры и степени")</f>
-        <v>Обстоятельства места, времени, причины, цели, условия, уступки, образа действия, меры и степени</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложное предложение")</f>
+        <v>Сложное предложение</v>
       </c>
       <c r="F21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),220.0)</f>
-        <v>220</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),230.0)</f>
+        <v>230</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексический разбор")</f>
-        <v>Лексический разбор</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление именительного падежа множественного числа существительных")</f>
+        <v>Нормативное образование и употребление именительного падежа множественного числа существительных</v>
       </c>
       <c r="H21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),320.0)</f>
-        <v>320</v>
-      </c>
-      <c r="I21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сравнение")</f>
-        <v>Сравнение</v>
-      </c>
-      <c r="J21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),420.0)</f>
-        <v>420</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),337.0)</f>
+        <v>337</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Спряжение глагола")</f>
-        <v>Спряжение глагола</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Относительные местоимения")</f>
+        <v>Относительные местоимения</v>
       </c>
       <c r="L21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),520.0)</f>
-        <v>520</v>
-      </c>
-      <c r="M21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Словообразовательный разбор слова")</f>
-        <v>Словообразовательный разбор слова</v>
-      </c>
-      <c r="N21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),620.0)</f>
-        <v>620</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),527.0)</f>
+        <v>527</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Типы речи. Повествование, описание, рассуждение")</f>
-        <v>Типы речи. Повествование, описание, рассуждение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексические признаки")</f>
+        <v>Лексические признаки</v>
       </c>
       <c r="R21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),820.0)</f>
-        <v>820</v>
-      </c>
-      <c r="S21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отмечать отличия языка художественной литературы от других разновидностей современного русского языка")</f>
-        <v>Отмечать отличия языка художественной литературы от других разновидностей современного русского языка</v>
-      </c>
-      <c r="T21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),920.0)</f>
-        <v>920</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),825.0)</f>
+        <v>825</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -2108,79 +1943,61 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы -ОНЬК-, -ЕНЬК-")</f>
-        <v>Суффиксы -ОНЬК-, -ЕНЬК-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы глаголов -ОВА(ЕВА)-/-ЫВА(ИВА)-")</f>
+        <v>Суффиксы глаголов -ОВА(ЕВА)-/-ЫВА(ИВА)-</v>
       </c>
       <c r="B22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21.0)</f>
-        <v>21</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в ССП с общей придаточной частью")</f>
-        <v>Знаки препинания в ССП с общей придаточной частью</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире между подлежащим и сказуемым")</f>
+        <v>Тире между подлежащим и сказуемым</v>
       </c>
       <c r="D22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
-        <v>121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
+        <v>133</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приложение")</f>
-        <v>Приложение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Придаточные определительные")</f>
+        <v>Придаточные определительные</v>
       </c>
       <c r="F22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),221.0)</f>
-        <v>221</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.0)</f>
+        <v>232</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Звукопись")</f>
-        <v>Звукопись</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление родительного падежа множественного числа существительных")</f>
+        <v>Нормативное образование и употребление родительного падежа множественного числа существительных</v>
       </c>
       <c r="H22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
-        <v>321</v>
-      </c>
-      <c r="I22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метонимия")</f>
-        <v>Метонимия</v>
-      </c>
-      <c r="J22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),421.0)</f>
-        <v>421</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
+        <v>338</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прилагательное")</f>
-        <v>Прилагательное</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание безударных чередующихся гласных в корне слова")</f>
+        <v>Правописание безударных чередующихся гласных в корне слова</v>
       </c>
       <c r="L22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),521.0)</f>
-        <v>521</v>
-      </c>
-      <c r="M22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разговорный стиль речи")</f>
-        <v>Разговорный стиль речи</v>
-      </c>
-      <c r="N22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),621.0)</f>
-        <v>621</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),529.0)</f>
+        <v>529</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Интонация. Темп чтения")</f>
-        <v>Интонация. Темп чтения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синтаксические признаки")</f>
+        <v>Синтаксические признаки</v>
       </c>
       <c r="R22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),821.0)</f>
-        <v>821</v>
-      </c>
-      <c r="S22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Использование синонимические ресурсы языка для более точного выражения мысли и усиления выразительности речи")</f>
-        <v>Использование синонимические ресурсы языка для более точного выражения мысли и усиления выразительности речи</v>
-      </c>
-      <c r="T22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),921.0)</f>
-        <v>921</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),826.0)</f>
+        <v>826</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -2190,79 +2007,61 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласные в суффиксах существительного после шипящей буквы")</f>
-        <v>Гласные в суффиксах существительного после шипящей буквы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание Е и И в суффиксах переходных и непереходных глаголов")</f>
+        <v>Правописание Е и И в суффиксах переходных и непереходных глаголов</v>
       </c>
       <c r="B23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),22.0)</f>
-        <v>22</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в сложном вопросительном предложении")</f>
-        <v>Знаки препинания в сложном вопросительном предложении</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире в неполном предложении")</f>
+        <v>Тире в неполном предложении</v>
       </c>
       <c r="D23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),122.0)</f>
-        <v>122</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
+        <v>134</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Односоставные предложения")</f>
-        <v>Односоставные предложения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Придаточные изъяснительные")</f>
+        <v>Придаточные изъяснительные</v>
       </c>
       <c r="F23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
-        <v>222</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),233.0)</f>
+        <v>233</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Точка с запятой в БСП")</f>
-        <v>Точка с запятой в БСП</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление сравнительной и превосходной степеней имён прилагательных и наречий")</f>
+        <v>Нормативное образование и употребление сравнительной и превосходной степеней имён прилагательных и наречий</v>
       </c>
       <c r="H23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),322.0)</f>
-        <v>322</v>
-      </c>
-      <c r="I23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синекдоха")</f>
-        <v>Синекдоха</v>
-      </c>
-      <c r="J23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
-        <v>422</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),339.0)</f>
+        <v>339</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разряды прилагательных. Качественные, относительные, притяжательные")</f>
-        <v>Разряды прилагательных. Качественные, относительные, притяжательные</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание разделительных Ъ/Ь")</f>
+        <v>Правописание разделительных Ъ/Ь</v>
       </c>
       <c r="L23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),522.0)</f>
-        <v>522</v>
-      </c>
-      <c r="M23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Научный стиль речи")</f>
-        <v>Научный стиль речи</v>
-      </c>
-      <c r="N23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),622.0)</f>
-        <v>622</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),530.0)</f>
+        <v>530</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Речевая ситуация")</f>
-        <v>Речевая ситуация</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Средства выразительности")</f>
+        <v>Средства выразительности</v>
       </c>
       <c r="R23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),822.0)</f>
-        <v>822</v>
-      </c>
-      <c r="S23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иметь представление об историческом развитии русского языка и истории русского языкознания")</f>
-        <v>Иметь представление об историческом развитии русского языка и истории русского языкознания</v>
-      </c>
-      <c r="T23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),922.0)</f>
-        <v>922</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),827.0)</f>
+        <v>827</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -2272,79 +2071,61 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы отымённых и отглагольных существительных -ОВ-/-ЁВ-")</f>
-        <v>Суффиксы отымённых и отглагольных существительных -ОВ-/-ЁВ-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласная в суффиксе -ЕН- глагола, обозначающего переход из одного состояния в другое")</f>
+        <v>Гласная в суффиксе -ЕН- глагола, обозначающего переход из одного состояния в другое</v>
       </c>
       <c r="B24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
-        <v>23</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в сложном восклицательном предложении")</f>
-        <v>Знаки препинания в сложном восклицательном предложении</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире в предложениях с обособленными приложениями")</f>
+        <v>Тире в предложениях с обособленными приложениями</v>
       </c>
       <c r="D24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),123.0)</f>
-        <v>123</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),135.0)</f>
+        <v>135</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Назывные предложения")</f>
-        <v>Назывные предложения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Придаточные обстоятельственные")</f>
+        <v>Придаточные обстоятельственные</v>
       </c>
       <c r="F24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),223.0)</f>
-        <v>223</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
+        <v>234</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение проблемы")</f>
-        <v>Определение проблемы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление форм глаголов")</f>
+        <v>Нормативное образование и употребление форм глаголов</v>
       </c>
       <c r="H24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
-        <v>323</v>
-      </c>
-      <c r="I24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гипербола")</f>
-        <v>Гипербола</v>
-      </c>
-      <c r="J24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),423.0)</f>
-        <v>423</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),340.0)</f>
+        <v>340</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Склонение прилагательных")</f>
-        <v>Склонение прилагательных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание приставок на -З и -С")</f>
+        <v>Правописание приставок на -З и -С</v>
       </c>
       <c r="L24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),523.0)</f>
-        <v>523</v>
-      </c>
-      <c r="M24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Официально-деловой стиль речи")</f>
-        <v>Официально-деловой стиль речи</v>
-      </c>
-      <c r="N24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),623.0)</f>
-        <v>623</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),531.0)</f>
+        <v>531</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Монологическая и даилогическая речь")</f>
-        <v>Монологическая и даилогическая речь</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анализ содержания текста")</f>
+        <v>Анализ содержания текста</v>
       </c>
       <c r="R24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),823.0)</f>
-        <v>823</v>
-      </c>
-      <c r="S24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Выражать согласие или несогласие с мнением собеседника в соответствии с правилами ведения диалогической речи")</f>
-        <v>Выражать согласие или несогласие с мнением собеседника в соответствии с правилами ведения диалогической речи</v>
-      </c>
-      <c r="T24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),923.0)</f>
-        <v>923</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),828.0)</f>
+        <v>828</v>
+      </c>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -2354,79 +2135,55 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ИНК-")</f>
-        <v>Суффиксы существительных -ИНК-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласная перед суффиксом глагола прошедшего времени")</f>
+        <v>Гласная перед суффиксом глагола прошедшего времени</v>
       </c>
       <c r="B25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
+        <v>39</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в сложном безличном предложении")</f>
-        <v>Знаки препинания в сложном безличном предложении</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире между словами и цифрами для указания пространственных, временных или количественных пределов")</f>
+        <v>Тире между словами и цифрами для указания пространственных, временных или количественных пределов</v>
       </c>
       <c r="D25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),124.0)</f>
-        <v>124</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),136.0)</f>
+        <v>136</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определённо-личные предложения")</f>
-        <v>Определённо-личные предложения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Придаточные присоединительные")</f>
+        <v>Придаточные присоединительные</v>
       </c>
       <c r="F25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
-        <v>224</v>
-      </c>
-      <c r="G25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулирование примеров-иллюстраций из прочитанного текста")</f>
-        <v>Формулирование примеров-иллюстраций из прочитанного текста</v>
-      </c>
-      <c r="H25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),324.0)</f>
-        <v>324</v>
-      </c>
-      <c r="I25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литота")</f>
-        <v>Литота</v>
-      </c>
-      <c r="J25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),424.0)</f>
-        <v>424</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
+        <v>235</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Степени сравнения прилагательных")</f>
-        <v>Степени сравнения прилагательных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание суффикса глаголов перед ударным -ВА-")</f>
+        <v>Правописание суффикса глаголов перед ударным -ВА-</v>
       </c>
       <c r="L25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),524.0)</f>
-        <v>524</v>
-      </c>
-      <c r="M25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Художественный стиль речи")</f>
-        <v>Художественный стиль речи</v>
-      </c>
-      <c r="N25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),624.0)</f>
-        <v>624</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),535.0)</f>
+        <v>535</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды чтения. Использование различных видов чтения в зависимости от коммуникативной задачи и характера текста")</f>
-        <v>Виды чтения. Использование различных видов чтения в зависимости от коммуникативной задачи и характера текста</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексическое значение слова (многозначного слова)")</f>
+        <v>Лексическое значение слова (многозначного слова)</v>
       </c>
       <c r="R25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),824.0)</f>
-        <v>824</v>
-      </c>
-      <c r="S25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дифференцировать главную и второстепенную информацию информацию в прослушанном тексте")</f>
-        <v>Дифференцировать главную и второстепенную информацию информацию в прослушанном тексте</v>
-      </c>
-      <c r="T25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),924.0)</f>
-        <v>924</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),829.0)</f>
+        <v>829</v>
+      </c>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
@@ -2436,79 +2193,55 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ОК-")</f>
-        <v>Суффиксы существительных -ОК-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласная в суффиксе инфинитива глагола")</f>
+        <v>Гласная в суффиксе инфинитива глагола</v>
       </c>
       <c r="B26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
-        <v>25</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в сложном назывном предложении")</f>
-        <v>Знаки препинания в сложном назывном предложении</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире в предложении с вводными и вставными конструкциями")</f>
+        <v>Тире в предложении с вводными и вставными конструкциями</v>
       </c>
       <c r="D26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),125.0)</f>
-        <v>125</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
+        <v>137</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обобщённо-личные предложения")</f>
-        <v>Обобщённо-личные предложения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нарушение границ предложения")</f>
+        <v>Нарушение границ предложения</v>
       </c>
       <c r="F26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
-        <v>225</v>
-      </c>
-      <c r="G26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пояснение примеров-иллюстраций")</f>
-        <v>Пояснение примеров-иллюстраций</v>
-      </c>
-      <c r="H26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
-        <v>325</v>
-      </c>
-      <c r="I26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ирония. Сарказм")</f>
-        <v>Ирония. Сарказм</v>
-      </c>
-      <c r="J26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
-        <v>425</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),256.0)</f>
+        <v>256</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полные и краткие прилагательные")</f>
-        <v>Полные и краткие прилагательные</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Глагольные суффиксы в причастиях и деепричастиях")</f>
+        <v>Глагольные суффиксы в причастиях и деепричастиях</v>
       </c>
       <c r="L26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),525.0)</f>
-        <v>525</v>
-      </c>
-      <c r="M26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Публицистический стиль речи")</f>
-        <v>Публицистический стиль речи</v>
-      </c>
-      <c r="N26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),625.0)</f>
-        <v>625</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),536.0)</f>
+        <v>536</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Аудирование")</f>
-        <v>Аудирование</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Союз как средство связи")</f>
+        <v>Союз как средство связи</v>
       </c>
       <c r="R26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),825.0)</f>
-        <v>825</v>
-      </c>
-      <c r="S26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проводить самостоятельный поиск текстовой и нетекстовой информации")</f>
-        <v>Проводить самостоятельный поиск текстовой и нетекстовой информации</v>
-      </c>
-      <c r="T26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),925.0)</f>
-        <v>925</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),830.0)</f>
+        <v>830</v>
+      </c>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
@@ -2518,79 +2251,55 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ЕК-/-ИК-")</f>
-        <v>Суффиксы существительных -ЕК-/-ИК-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ЕВ-/-ИВ-")</f>
+        <v>Суффиксы прилагательных -ЕВ-/-ИВ-</v>
       </c>
       <c r="B27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
-        <v>26</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в СПП")</f>
-        <v>Знаки препинания в СПП</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире в предложениях с уточняющими членами предложения")</f>
+        <v>Тире в предложениях с уточняющими членами предложения</v>
       </c>
       <c r="D27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
-        <v>126</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
+        <v>138</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неопределённо личные предложения")</f>
-        <v>Неопределённо личные предложения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложносочиненное предложение")</f>
+        <v>Сложносочиненное предложение</v>
       </c>
       <c r="F27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),226.0)</f>
-        <v>226</v>
-      </c>
-      <c r="G27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смысловая связь между примерами-иллюстрациями и её анализ")</f>
-        <v>Смысловая связь между примерами-иллюстрациями и её анализ</v>
-      </c>
-      <c r="H27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),326.0)</f>
-        <v>326</v>
-      </c>
-      <c r="I27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перифраз")</f>
-        <v>Перифраз</v>
-      </c>
-      <c r="J27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),426.0)</f>
-        <v>426</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
+        <v>259</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Числительное")</f>
-        <v>Числительное</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слитное и раздельное написание производных предлогов")</f>
+        <v>Слитное и раздельное написание производных предлогов</v>
       </c>
       <c r="L27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),526.0)</f>
-        <v>526</v>
-      </c>
-      <c r="M27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Жанр текста")</f>
-        <v>Жанр текста</v>
-      </c>
-      <c r="N27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),626.0)</f>
-        <v>626</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),542.0)</f>
+        <v>542</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Автор, герой, рассказчик")</f>
-        <v>Автор, герой, рассказчик</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Частицы как средство связи")</f>
+        <v>Частицы как средство связи</v>
       </c>
       <c r="R27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),826.0)</f>
-        <v>826</v>
-      </c>
-      <c r="S27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отбирать и анализировать полученную информацию")</f>
-        <v>Отбирать и анализировать полученную информацию</v>
-      </c>
-      <c r="T27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),926.0)</f>
-        <v>926</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),831.0)</f>
+        <v>831</v>
+      </c>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
@@ -2600,79 +2309,55 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ЕЦ-/-ИЦ-")</f>
-        <v>Суффиксы существительных -ЕЦ-/-ИЦ-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласная в суффиксах прилагательных после шипящих под ударением")</f>
+        <v>Гласная в суффиксах прилагательных после шипящих под ударением</v>
       </c>
       <c r="B28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
-        <v>27</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в СПП с несколькими придаточными")</f>
-        <v>Знаки препинания в СПП с несколькими придаточными</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире в бессоюзном сложном предложении")</f>
+        <v>Тире в бессоюзном сложном предложении</v>
       </c>
       <c r="D28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
-        <v>127</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),139.0)</f>
+        <v>139</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Безличные предложения")</f>
-        <v>Безличные предложения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложноподчиненное предложение")</f>
+        <v>Сложноподчиненное предложение</v>
       </c>
       <c r="F28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),227.0)</f>
-        <v>227</v>
-      </c>
-      <c r="G28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение авторской позиции")</f>
-        <v>Определение авторской позиции</v>
-      </c>
-      <c r="H28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
-        <v>327</v>
-      </c>
-      <c r="I28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Употребление слова в несвойственном ему значении")</f>
-        <v>Употребление слова в несвойственном ему значении</v>
-      </c>
-      <c r="J28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),427.0)</f>
-        <v>427</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
+        <v>260</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
       <c r="K28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разряды числительных. Целые, дробные, собирательные, порядковые. Простые, составные")</f>
-        <v>Разряды числительных. Целые, дробные, собирательные, порядковые. Простые, составные</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- в суффиксах кратких отымённых прилагательных")</f>
+        <v>Правописание -Н- и -НН- в суффиксах кратких отымённых прилагательных</v>
       </c>
       <c r="L28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),527.0)</f>
-        <v>527</v>
-      </c>
-      <c r="M28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Типы речи")</f>
-        <v>Типы речи</v>
-      </c>
-      <c r="N28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),627.0)</f>
-        <v>627</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),543.0)</f>
+        <v>543</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Соблюдение фактологической точности")</f>
-        <v>Соблюдение фактологической точности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отбор языковых средств (сочинительный союз).")</f>
+        <v>Отбор языковых средств (сочинительный союз).</v>
       </c>
       <c r="R28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),827.0)</f>
-        <v>827</v>
-      </c>
-      <c r="S28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Оценивать стилистические ресурсы языка")</f>
-        <v>Оценивать стилистические ресурсы языка</v>
-      </c>
-      <c r="T28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),927.0)</f>
-        <v>927</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),832.0)</f>
+        <v>832</v>
+      </c>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
@@ -2682,73 +2367,49 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффикс существительного -К- в сочетаниях -ИНК-/-ЕНК-")</f>
-        <v>Суффикс существительного -К- в сочетаниях -ИНК-/-ЕНК-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ЧИВ-/-ЛИВ-/-ИСТ-")</f>
+        <v>Суффиксы прилагательных -ЧИВ-/-ЛИВ-/-ИСТ-</v>
       </c>
       <c r="B29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
-        <v>28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в СПП с несколькими придаточными, связанными повторяющимся союзом")</f>
-        <v>Знаки препинания в СПП с несколькими придаточными, связанными повторяющимся союзом</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Двоеточие в бессоюзном сложном предложении")</f>
+        <v>Двоеточие в бессоюзном сложном предложении</v>
       </c>
       <c r="D29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
-        <v>128</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неполные предложения. Элипсис")</f>
-        <v>Неполные предложения. Элипсис</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бессоюзное сложное предложение")</f>
+        <v>Бессоюзное сложное предложение</v>
       </c>
       <c r="F29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),228.0)</f>
-        <v>228</v>
-      </c>
-      <c r="G29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулирование и обоснование своей позиции")</f>
-        <v>Формулирование и обоснование своей позиции</v>
-      </c>
-      <c r="H29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
-        <v>328</v>
-      </c>
-      <c r="I29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неразличение оттенков значения, вносимых в слово приставкой и суффиксом")</f>
-        <v>Неразличение оттенков значения, вносимых в слово приставкой и суффиксом</v>
-      </c>
-      <c r="J29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),428.0)</f>
-        <v>428</v>
-      </c>
-      <c r="K29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Склонение числительных")</f>
-        <v>Склонение числительных</v>
-      </c>
-      <c r="L29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),528.0)</f>
-        <v>528</v>
-      </c>
-      <c r="M29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Морфологические признаки")</f>
-        <v>Морфологические признаки</v>
-      </c>
-      <c r="N29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),628.0)</f>
-        <v>628</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
+        <v>261</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сохранять стилевое единство при создании текста заданного функционального стиля")</f>
-        <v>Сохранять стилевое единство при создании текста заданного функционального стиля</v>
-      </c>
-      <c r="T29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),928.0)</f>
-        <v>928</v>
-      </c>
+      <c r="Q29" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отбор языковых средств (подчинительный союз и союзное слово).")</f>
+        <v>Отбор языковых средств (подчинительный союз и союзное слово).</v>
+      </c>
+      <c r="R29" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),833.0)</f>
+        <v>833</v>
+      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -2758,73 +2419,49 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ИНСТВ-/-ЕНСТВ-")</f>
-        <v>Суффиксы существительных -ИНСТВ-/-ЕНСТВ-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ОВ-/-ЕВ-/-ОВАТ-/-ЕВАТ-/-ОВИТ-/-ЕВИТ-")</f>
+        <v>Суффиксы прилагательных -ОВ-/-ЕВ-/-ОВАТ-/-ЕВАТ-/-ОВИТ-/-ЕВИТ-</v>
       </c>
       <c r="B30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
-        <v>29</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47.0)</f>
+        <v>47</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в СПП с однородными придаточными")</f>
-        <v>Знаки препинания в СПП с однородными придаточными</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуационный разбор предложения")</f>
+        <v>Пунктуационный разбор предложения</v>
       </c>
       <c r="D30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),129.0)</f>
-        <v>129</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),142.0)</f>
+        <v>142</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Однородные и неоднородные члены")</f>
-        <v>Однородные и неоднородные члены</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Простое предложение")</f>
+        <v>Простое предложение</v>
       </c>
       <c r="F30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),229.0)</f>
-        <v>229</v>
-      </c>
-      <c r="G30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление форм причастий и деепричастий")</f>
-        <v>Нормативное образование и употребление форм причастий и деепричастий</v>
-      </c>
-      <c r="H30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),329.0)</f>
-        <v>329</v>
-      </c>
-      <c r="I30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неразличение синонимичных слов")</f>
-        <v>Неразличение синонимичных слов</v>
-      </c>
-      <c r="J30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),429.0)</f>
-        <v>429</v>
-      </c>
-      <c r="K30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Местоимение")</f>
-        <v>Местоимение</v>
-      </c>
-      <c r="L30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),529.0)</f>
-        <v>529</v>
-      </c>
-      <c r="M30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексические признаки")</f>
-        <v>Лексические признаки</v>
-      </c>
-      <c r="N30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),629.0)</f>
-        <v>629</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
+        <v>277</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Владеть умениями информационно перерабатывать прочитанные и прослушанные тексты и представлять их в виде тезисов")</f>
-        <v>Владеть умениями информационно перерабатывать прочитанные и прослушанные тексты и представлять их в виде тезисов</v>
-      </c>
-      <c r="T30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),929.0)</f>
-        <v>929</v>
-      </c>
+      <c r="Q30" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отбор языковых средств (местоимение).")</f>
+        <v>Отбор языковых средств (местоимение).</v>
+      </c>
+      <c r="R30" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),834.0)</f>
+        <v>834</v>
+      </c>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
@@ -2834,67 +2471,43 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -УШК-/-ЫШК-/-ИШК-")</f>
-        <v>Суффиксы существительных -УШК-/-ЫШК-/-ИШК-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ЧАТ-/-АТ-")</f>
+        <v>Суффиксы прилагательных -ЧАТ-/-АТ-</v>
       </c>
       <c r="B31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая на стыке двух союзов")</f>
-        <v>Запятая на стыке двух союзов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с несколькими рядами однородных членов")</f>
+        <v>Пунктуация в простом предложении с несколькими рядами однородных членов</v>
       </c>
       <c r="D31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),130.0)</f>
-        <v>130</v>
-      </c>
-      <c r="E31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложное предложение")</f>
-        <v>Сложное предложение</v>
-      </c>
-      <c r="F31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),230.0)</f>
-        <v>230</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
+        <v>146</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нарушение лексической сочетаемости")</f>
-        <v>Нарушение лексической сочетаемости</v>
-      </c>
-      <c r="J31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),430.0)</f>
-        <v>430</v>
-      </c>
-      <c r="K31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разряды местоимения. Личные, возвратное, притяжательные, указательные, определительные, относительно-вопросительные, отрицательные, неопределенные")</f>
-        <v>Разряды местоимения. Личные, возвратное, притяжательные, указательные, определительные, относительно-вопросительные, отрицательные, неопределенные</v>
-      </c>
-      <c r="L31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),530.0)</f>
-        <v>530</v>
-      </c>
-      <c r="M31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синтаксические признаки")</f>
-        <v>Синтаксические признаки</v>
-      </c>
-      <c r="N31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),630.0)</f>
-        <v>630</v>
-      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Соблюдать культуру чтения, говорения, аудирования и письма")</f>
-        <v>Соблюдать культуру чтения, говорения, аудирования и письма</v>
-      </c>
-      <c r="T31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),930.0)</f>
-        <v>930</v>
-      </c>
+      <c r="Q31" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отбор языковых средств (вводное слово и вставная конструкция)")</f>
+        <v>Отбор языковых средств (вводное слово и вставная конструкция)</v>
+      </c>
+      <c r="R31" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),835.0)</f>
+        <v>835</v>
+      </c>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -2904,67 +2517,43 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ИН-/-ИЗН-")</f>
-        <v>Суффиксы существительных -ИН-/-ИЗН-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -К-/-СК-")</f>
+        <v>Суффиксы прилагательных -К-/-СК-</v>
       </c>
       <c r="B32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31.0)</f>
-        <v>31</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
+        <v>49</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в предложениях с разными видами связи")</f>
-        <v>Знаки препинания в предложениях с разными видами связи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разграничение вводных слов и членов предложения")</f>
+        <v>Разграничение вводных слов и членов предложения</v>
       </c>
       <c r="D32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),131.0)</f>
-        <v>131</v>
-      </c>
-      <c r="E32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Типы придаточных предложений")</f>
-        <v>Типы придаточных предложений</v>
-      </c>
-      <c r="F32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),231.0)</f>
-        <v>231</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),147.0)</f>
+        <v>147</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Употребление лишних слов. Плеоназм. Речевая недостаточность")</f>
-        <v>Употребление лишних слов. Плеоназм. Речевая недостаточность</v>
-      </c>
-      <c r="J32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),431.0)</f>
-        <v>431</v>
-      </c>
-      <c r="K32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лицо, род, число, склонение местоимения")</f>
-        <v>Лицо, род, число, склонение местоимения</v>
-      </c>
-      <c r="L32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),531.0)</f>
-        <v>531</v>
-      </c>
-      <c r="M32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Средства выразительности")</f>
-        <v>Средства выразительности</v>
-      </c>
-      <c r="N32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),631.0)</f>
-        <v>631</v>
-      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Соблюдать культуру научного и делового общения в устной и письменной форме")</f>
-        <v>Соблюдать культуру научного и делового общения в устной и письменной форме</v>
-      </c>
-      <c r="T32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),931.0)</f>
-        <v>931</v>
-      </c>
+      <c r="Q32" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отбор языковых средств (наречие).")</f>
+        <v>Отбор языковых средств (наречие).</v>
+      </c>
+      <c r="R32" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),836.0)</f>
+        <v>836</v>
+      </c>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -2974,67 +2563,43 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ЧИК-/ЩИК-")</f>
-        <v>Суффиксы существительных -ЧИК-/ЩИК-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ОНЬК-/-ЕНЬК-")</f>
+        <v>Суффиксы прилагательных -ОНЬК-/-ЕНЬК-</v>
       </c>
       <c r="B33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая и точка с запятой в бессоюзном сложном предложении")</f>
-        <v>Запятая и точка с запятой в бессоюзном сложном предложении</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с однородными членами, связанными бессоюзной связью")</f>
+        <v>Пунктуация в простом предложении с однородными членами, связанными бессоюзной связью</v>
       </c>
       <c r="D33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
-        <v>132</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Придаточные определительные")</f>
-        <v>Придаточные определительные</v>
-      </c>
-      <c r="F33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.0)</f>
-        <v>232</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
+        <v>148</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Употребление однокоренных слов в близком контексте (тавтология)")</f>
-        <v>Употребление однокоренных слов в близком контексте (тавтология)</v>
-      </c>
-      <c r="J33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),432.0)</f>
-        <v>432</v>
-      </c>
-      <c r="K33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Наречие")</f>
-        <v>Наречие</v>
-      </c>
-      <c r="L33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),532.0)</f>
-        <v>532</v>
-      </c>
-      <c r="M33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анализ содержания текста")</f>
-        <v>Анализ содержания текста</v>
-      </c>
-      <c r="N33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),632.0)</f>
-        <v>632</v>
-      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Соблюдать нормы речевого поведения в разговорной речи")</f>
-        <v>Соблюдать нормы речевого поведения в разговорной речи</v>
-      </c>
-      <c r="T33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),932.0)</f>
-        <v>932</v>
-      </c>
+      <c r="Q33" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отбор языковых средств (предлог и производный предлог)")</f>
+        <v>Отбор языковых средств (предлог и производный предлог)</v>
+      </c>
+      <c r="R33" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),837.0)</f>
+        <v>837</v>
+      </c>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
@@ -3044,67 +2609,43 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ИЧ+К-/-ЕЧК-")</f>
-        <v>Суффиксы существительных -ИЧ+К-/-ЕЧК-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффикс прилагательных -ЕСК-")</f>
+        <v>Суффикс прилагательных -ЕСК-</v>
       </c>
       <c r="B34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
-        <v>33</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире между подлежащим и сказуемым")</f>
-        <v>Тире между подлежащим и сказуемым</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания при междометиях")</f>
+        <v>Знаки препинания при междометиях</v>
       </c>
       <c r="D34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
-        <v>133</v>
-      </c>
-      <c r="E34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Придаточные изъяснительные")</f>
-        <v>Придаточные изъяснительные</v>
-      </c>
-      <c r="F34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),233.0)</f>
-        <v>233</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),166.0)</f>
+        <v>166</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неоправданное повторение слова")</f>
-        <v>Неоправданное повторение слова</v>
-      </c>
-      <c r="J34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),433.0)</f>
-        <v>433</v>
-      </c>
-      <c r="K34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разряды наречий")</f>
-        <v>Разряды наречий</v>
-      </c>
-      <c r="L34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),533.0)</f>
-        <v>533</v>
-      </c>
-      <c r="M34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Личные местоимения")</f>
-        <v>Личные местоимения</v>
-      </c>
-      <c r="N34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),633.0)</f>
-        <v>633</v>
-      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Осуществлять речевой самоконтроль")</f>
-        <v>Осуществлять речевой самоконтроль</v>
-      </c>
-      <c r="T34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),933.0)</f>
-        <v>933</v>
-      </c>
+      <c r="Q34" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отбор языковых средств (частица)")</f>
+        <v>Отбор языковых средств (частица)</v>
+      </c>
+      <c r="R34" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),838.0)</f>
+        <v>838</v>
+      </c>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
@@ -3114,67 +2655,43 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ОТН-/-ОТ-/-ОВН-/-ОСТЬ-")</f>
-        <v>Суффиксы существительных -ОТН-/-ОТ-/-ОВН-/-ОСТЬ-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласная перед Ч в прилагательных на -ЧИЙ")</f>
+        <v>Гласная перед Ч в прилагательных на -ЧИЙ</v>
       </c>
       <c r="B35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
+        <v>52</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире в неполном предложении")</f>
-        <v>Тире в неполном предложении</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире в предложении с однородными членами и обобщающим словом")</f>
+        <v>Тире в предложении с однородными членами и обобщающим словом</v>
       </c>
       <c r="D35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
-        <v>134</v>
-      </c>
-      <c r="E35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Придаточные обстоятельственные")</f>
-        <v>Придаточные обстоятельственные</v>
-      </c>
-      <c r="F35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
-        <v>234</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),167.0)</f>
+        <v>167</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неудачное употребление местоимений")</f>
-        <v>Неудачное употребление местоимений</v>
-      </c>
-      <c r="J35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),434.0)</f>
-        <v>434</v>
-      </c>
-      <c r="K35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Степени сравнения наречия")</f>
-        <v>Степени сравнения наречия</v>
-      </c>
-      <c r="L35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),534.0)</f>
-        <v>534</v>
-      </c>
-      <c r="M35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Притяжательные местоимения")</f>
-        <v>Притяжательные местоимения</v>
-      </c>
-      <c r="N35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),634.0)</f>
-        <v>634</v>
-      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Совершенствовать орфографические и пунктуационные умения и навыки")</f>
-        <v>Совершенствовать орфографические и пунктуационные умения и навыки</v>
-      </c>
-      <c r="T35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),934.0)</f>
-        <v>934</v>
-      </c>
+      <c r="Q35" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Повествование")</f>
+        <v>Повествование</v>
+      </c>
+      <c r="R35" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),839.0)</f>
+        <v>839</v>
+      </c>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -3184,67 +2701,43 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ЕТ-/-ЕСТЬ-/-ЕСТВ-")</f>
-        <v>Суффиксы существительных -ЕТ-/-ЕСТЬ-/-ЕСТВ-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Омонимия в суффиксах прилагательных -ЯН-/-ЕН-")</f>
+        <v>Омонимия в суффиксах прилагательных -ЯН-/-ЕН-</v>
       </c>
       <c r="B36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
-        <v>35</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54.0)</f>
+        <v>54</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире в предложениях с обособленными приложениями")</f>
-        <v>Тире в предложениях с обособленными приложениями</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Двоеточие в предложениями с однородными членами и обобщающим словом")</f>
+        <v>Двоеточие в предложениями с однородными членами и обобщающим словом</v>
       </c>
       <c r="D36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),135.0)</f>
-        <v>135</v>
-      </c>
-      <c r="E36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Придаточные присоединительные")</f>
-        <v>Придаточные присоединительные</v>
-      </c>
-      <c r="F36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
-        <v>235</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
+        <v>168</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Этические нормы")</f>
-        <v>Этические нормы</v>
-      </c>
-      <c r="J36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),435.0)</f>
-        <v>435</v>
-      </c>
-      <c r="K36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Категория состояния")</f>
-        <v>Категория состояния</v>
-      </c>
-      <c r="L36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),535.0)</f>
-        <v>535</v>
-      </c>
-      <c r="M36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Указательные местоимения")</f>
-        <v>Указательные местоимения</v>
-      </c>
-      <c r="N36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),635.0)</f>
-        <v>635</v>
-      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Оценивать эстетическую сторону речевого высказывания при анализе различных текстов текстов")</f>
-        <v>Оценивать эстетическую сторону речевого высказывания при анализе различных текстов текстов</v>
-      </c>
-      <c r="T36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),935.0)</f>
-        <v>935</v>
-      </c>
+      <c r="Q36" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Описание")</f>
+        <v>Описание</v>
+      </c>
+      <c r="R36" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),840.0)</f>
+        <v>840</v>
+      </c>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
@@ -3254,67 +2747,43 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы глаголов -ОВА(ЕВА)-/-ЫВА(ИВА)-/-ВА-")</f>
-        <v>Суффиксы глаголов -ОВА(ЕВА)-/-ЫВА(ИВА)-/-ВА-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание безударных личных окончаний глаголов 1 спряжения")</f>
+        <v>Правописание безударных личных окончаний глаголов 1 спряжения</v>
       </c>
       <c r="B37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
+        <v>55</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире между словами и цифрами для указания пространственных, временных или количественных пределов")</f>
-        <v>Тире между словами и цифрами для указания пространственных, временных или количественных пределов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при передаче на письме чужой речи (прямая речь)")</f>
+        <v>Запятая при передаче на письме чужой речи (прямая речь)</v>
       </c>
       <c r="D37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),136.0)</f>
-        <v>136</v>
-      </c>
-      <c r="E37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цитата")</f>
-        <v>Цитата</v>
-      </c>
-      <c r="F37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
-        <v>236</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),169.0)</f>
+        <v>169</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Инверсия")</f>
-        <v>Инверсия</v>
-      </c>
-      <c r="J37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),436.0)</f>
-        <v>436</v>
-      </c>
-      <c r="K37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Причастие")</f>
-        <v>Причастие</v>
-      </c>
-      <c r="L37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),536.0)</f>
-        <v>536</v>
-      </c>
-      <c r="M37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определительные местоимения")</f>
-        <v>Определительные местоимения</v>
-      </c>
-      <c r="N37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),636.0)</f>
-        <v>636</v>
-      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проводить комплексный анализ языковых единиц в тексте")</f>
-        <v>Проводить комплексный анализ языковых единиц в тексте</v>
-      </c>
-      <c r="T37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),936.0)</f>
-        <v>936</v>
-      </c>
+      <c r="Q37" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рассуждение")</f>
+        <v>Рассуждение</v>
+      </c>
+      <c r="R37" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),841.0)</f>
+        <v>841</v>
+      </c>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
@@ -3324,67 +2793,43 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание Е и И в суффиксах переходных и непереходных глаголов")</f>
-        <v>Правописание Е и И в суффиксах переходных и непереходных глаголов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание безударных личных окончаний глаголов 2 спряжения")</f>
+        <v>Правописание безударных личных окончаний глаголов 2 спряжения</v>
       </c>
       <c r="B38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
-        <v>37</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
+        <v>56</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире в предложениях со вставными конструкциями")</f>
-        <v>Тире в предложениях со вставными конструкциями</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире при передаче на письме чужой речи (диалог, прямая речь)")</f>
+        <v>Тире при передаче на письме чужой речи (диалог, прямая речь)</v>
       </c>
       <c r="D38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
-        <v>137</v>
-      </c>
-      <c r="E38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Риторический вопрос")</f>
-        <v>Риторический вопрос</v>
-      </c>
-      <c r="F38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
-        <v>237</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),170.0)</f>
+        <v>170</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -НН- в кратких отглагольных прилагательных")</f>
-        <v>Правописание -НН- в кратких отглагольных прилагательных</v>
-      </c>
-      <c r="J38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),437.0)</f>
-        <v>437</v>
-      </c>
-      <c r="K38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вид, переходность, возвратность, время причастий")</f>
-        <v>Вид, переходность, возвратность, время причастий</v>
-      </c>
-      <c r="L38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),537.0)</f>
-        <v>537</v>
-      </c>
-      <c r="M38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неопределенные местоимения")</f>
-        <v>Неопределенные местоимения</v>
-      </c>
-      <c r="N38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),637.0)</f>
-        <v>637</v>
-      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анализировать языковые явления и факты, допускающие неоднозначную интерпретацию")</f>
-        <v>Анализировать языковые явления и факты, допускающие неоднозначную интерпретацию</v>
-      </c>
-      <c r="T38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),937.0)</f>
-        <v>937</v>
-      </c>
+      <c r="Q38" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метафора")</f>
+        <v>Метафора</v>
+      </c>
+      <c r="R38" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),842.0)</f>
+        <v>842</v>
+      </c>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
@@ -3394,67 +2839,43 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласная в суффиксе -ЕН- глагола, обозначающего переход из одного состояния в другое")</f>
-        <v>Гласная в суффиксе -ЕН- глагола, обозначающего переход из одного состояния в другое</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание личных окончаний глагола с приставкой ВЫ-")</f>
+        <v>Правописание личных окончаний глагола с приставкой ВЫ-</v>
       </c>
       <c r="B39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
+        <v>57</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире в предложениях с уточняющими членами предложения")</f>
-        <v>Тире в предложениях с уточняющими членами предложения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Двоеточие при передаче на письме чужой речи (прямая речь)")</f>
+        <v>Двоеточие при передаче на письме чужой речи (прямая речь)</v>
       </c>
       <c r="D39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
-        <v>138</v>
-      </c>
-      <c r="E39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Риторическое восклицание")</f>
-        <v>Риторическое восклицание</v>
-      </c>
-      <c r="F39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),238.0)</f>
-        <v>238</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),171.0)</f>
+        <v>171</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с однородными членами, связанными повторяющимися союзами, которые обозначают устойчивое выражение")</f>
-        <v>Пунктуация в простом предложении с однородными членами, связанными повторяющимися союзами, которые обозначают устойчивое выражение</v>
-      </c>
-      <c r="J39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),438.0)</f>
-        <v>438</v>
-      </c>
-      <c r="K39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Залог причастий")</f>
-        <v>Залог причастий</v>
-      </c>
-      <c r="L39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),538.0)</f>
-        <v>538</v>
-      </c>
-      <c r="M39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отрицательные местоимения")</f>
-        <v>Отрицательные местоимения</v>
-      </c>
-      <c r="N39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),638.0)</f>
-        <v>638</v>
-      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проводить комплексный лингвистический анализ текста")</f>
-        <v>Проводить комплексный лингвистический анализ текста</v>
-      </c>
-      <c r="T39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),938.0)</f>
-        <v>938</v>
-      </c>
+      <c r="Q39" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Олицетворение")</f>
+        <v>Олицетворение</v>
+      </c>
+      <c r="R39" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),843.0)</f>
+        <v>843</v>
+      </c>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
@@ -3464,67 +2885,43 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласная перед суффиксом глагола прошедшего времени")</f>
-        <v>Гласная перед суффиксом глагола прошедшего времени</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание личных окончаний разноспрягаемых глаголов")</f>
+        <v>Правописание личных окончаний разноспрягаемых глаголов</v>
       </c>
       <c r="B40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
-        <v>39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
+        <v>58</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире в БСП")</f>
-        <v>Тире в БСП</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с однородными членами, связанными бессоюзной связью")</f>
+        <v>Пунктуация в простом предложении с однородными членами, связанными бессоюзной связью</v>
       </c>
       <c r="D40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),139.0)</f>
-        <v>139</v>
-      </c>
-      <c r="E40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сравнительный оборот")</f>
-        <v>Сравнительный оборот</v>
-      </c>
-      <c r="F40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.0)</f>
-        <v>239</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
+        <v>172</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с несколькими рядами однородных членов")</f>
-        <v>Пунктуация в простом предложении с несколькими рядами однородных членов</v>
-      </c>
-      <c r="J40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
-        <v>439</v>
-      </c>
-      <c r="K40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Род, число, падеж причастий")</f>
-        <v>Род, число, падеж причастий</v>
-      </c>
-      <c r="L40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),539.0)</f>
-        <v>539</v>
-      </c>
-      <c r="M40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Относительные местоимения")</f>
-        <v>Относительные местоимения</v>
-      </c>
-      <c r="N40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),639.0)</f>
-        <v>639</v>
-      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Критически оценивать устный монологический текст и устный диалогический текст")</f>
-        <v>Критически оценивать устный монологический текст и устный диалогический текст</v>
-      </c>
-      <c r="T40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),939.0)</f>
-        <v>939</v>
-      </c>
+      <c r="Q40" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разговорный стиль речи")</f>
+        <v>Разговорный стиль речи</v>
+      </c>
+      <c r="R40" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),844.0)</f>
+        <v>844</v>
+      </c>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
@@ -3534,67 +2931,43 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласная в суффиксе инфинитива глагола")</f>
-        <v>Гласная в суффиксе инфинитива глагола</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разграничение частиц НЕ и НИ")</f>
+        <v>Разграничение частиц НЕ и НИ</v>
       </c>
       <c r="B41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),62.0)</f>
+        <v>62</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Двоеточие в БСП")</f>
-        <v>Двоеточие в БСП</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с однородными членами, связанными одиночным соединительным или разделительным союзом")</f>
+        <v>Пунктуация в простом предложении с однородными членами, связанными одиночным соединительным или разделительным союзом</v>
       </c>
       <c r="D41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
-        <v>140</v>
-      </c>
-      <c r="E41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Антитеза")</f>
-        <v>Антитеза</v>
-      </c>
-      <c r="F41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),240.0)</f>
-        <v>240</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),173.0)</f>
+        <v>173</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в ССП с общим членом")</f>
-        <v>Знаки препинания в ССП с общим членом</v>
-      </c>
-      <c r="J41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),440.0)</f>
-        <v>440</v>
-      </c>
-      <c r="K41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полные и краткие причастия")</f>
-        <v>Полные и краткие причастия</v>
-      </c>
-      <c r="L41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),540.0)</f>
-        <v>540</v>
-      </c>
-      <c r="M41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Орфоэпические нормы")</f>
-        <v>Орфоэпические нормы</v>
-      </c>
-      <c r="N41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),640.0)</f>
-        <v>640</v>
-      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Использовать языковые средства с учетом вариативности современного русского языка")</f>
-        <v>Использовать языковые средства с учетом вариативности современного русского языка</v>
-      </c>
-      <c r="T41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),940.0)</f>
-        <v>940</v>
-      </c>
+      <c r="Q41" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Научный стиль речи")</f>
+        <v>Научный стиль речи</v>
+      </c>
+      <c r="R41" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),845.0)</f>
+        <v>845</v>
+      </c>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
@@ -3604,67 +2977,43 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласные перед суффиксом действительного причастия прошедшего времени")</f>
-        <v>Гласные перед суффиксом действительного причастия прошедшего времени</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Различие приставки НЕДО- от сочетания слов НЕ ДО-")</f>
+        <v>Различие приставки НЕДО- от сочетания слов НЕ ДО-</v>
       </c>
       <c r="B42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),41.0)</f>
-        <v>41</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),64.0)</f>
+        <v>64</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кавычки")</f>
-        <v>Кавычки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с однородными членами, связанными повторяющимися союзами")</f>
+        <v>Пунктуация в простом предложении с однородными членами, связанными повторяющимися союзами</v>
       </c>
       <c r="D42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
-        <v>141</v>
-      </c>
-      <c r="E42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вопросно-ответная форма изложения")</f>
-        <v>Вопросно-ответная форма изложения</v>
-      </c>
-      <c r="F42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
-        <v>241</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
+        <v>175</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разграничение вводных слов и членов предложения")</f>
-        <v>Разграничение вводных слов и членов предложения</v>
-      </c>
-      <c r="J42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),441.0)</f>
-        <v>441</v>
-      </c>
-      <c r="K42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Причастия и отглагольные прилагательные")</f>
-        <v>Причастия и отглагольные прилагательные</v>
-      </c>
-      <c r="L42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),541.0)</f>
-        <v>541</v>
-      </c>
-      <c r="M42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексическое значение многозначного слова")</f>
-        <v>Лексическое значение многозначного слова</v>
-      </c>
-      <c r="N42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),641.0)</f>
-        <v>641</v>
-      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Редактировать устные и письменные тексты различных стилей и жанров")</f>
-        <v>Редактировать устные и письменные тексты различных стилей и жанров</v>
-      </c>
-      <c r="T42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),941.0)</f>
-        <v>941</v>
-      </c>
+      <c r="Q42" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Официально-деловой стиль речи")</f>
+        <v>Официально-деловой стиль речи</v>
+      </c>
+      <c r="R42" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),846.0)</f>
+        <v>846</v>
+      </c>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
@@ -3674,67 +3023,43 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласная в суффиксах страдательного причастия прошедшего времени под ударением")</f>
-        <v>Гласная в суффиксах страдательного причастия прошедшего времени под ударением</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание частиц НЕ и НИ с краткими прилагательными, не имеющими полную форму")</f>
+        <v>Правописание частиц НЕ и НИ с краткими прилагательными, не имеющими полную форму</v>
       </c>
       <c r="B43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),68.0)</f>
+        <v>68</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуационный разбор предложения")</f>
-        <v>Пунктуационный разбор предложения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в предложении с однородными членами (синтаксический анализ)")</f>
+        <v>Запятая в предложении с однородными членами (синтаксический анализ)</v>
       </c>
       <c r="D43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),142.0)</f>
-        <v>142</v>
-      </c>
-      <c r="E43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Противопоставление")</f>
-        <v>Противопоставление</v>
-      </c>
-      <c r="F43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
-        <v>242</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
+        <v>176</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при однородных членах")</f>
-        <v>Запятая при однородных членах</v>
-      </c>
-      <c r="J43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),442.0)</f>
-        <v>442</v>
-      </c>
-      <c r="K43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Деепричастие")</f>
-        <v>Деепричастие</v>
-      </c>
-      <c r="L43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),542.0)</f>
-        <v>542</v>
-      </c>
-      <c r="M43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексическая сочетаемость")</f>
-        <v>Лексическая сочетаемость</v>
-      </c>
-      <c r="N43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),642.0)</f>
-        <v>642</v>
-      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проведение различных видов анализа слова (фонетического, морфемного, словообразовательного, лексического, морфологического)")</f>
-        <v>Проведение различных видов анализа слова (фонетического, морфемного, словообразовательного, лексического, морфологического)</v>
-      </c>
-      <c r="T43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),942.0)</f>
-        <v>942</v>
-      </c>
+      <c r="Q43" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Художественный стиль речи")</f>
+        <v>Художественный стиль речи</v>
+      </c>
+      <c r="R43" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),847.0)</f>
+        <v>847</v>
+      </c>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
@@ -3744,67 +3069,43 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласные О/А в суффиксах наречий")</f>
-        <v>Гласные О/А в суффиксах наречий</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слитное и раздельное написание союзов")</f>
+        <v>Слитное и раздельное написание союзов</v>
       </c>
       <c r="B44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43.0)</f>
-        <v>43</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),71.0)</f>
+        <v>71</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания при вставных конструкциях")</f>
-        <v>Знаки препинания при вставных конструкциях</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в сложносочинённом предложении (синтаксический анализ)")</f>
+        <v>Запятая в сложносочинённом предложении (синтаксический анализ)</v>
       </c>
       <c r="D44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),143.0)</f>
-        <v>143</v>
-      </c>
-      <c r="E44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анафора")</f>
-        <v>Анафора</v>
-      </c>
-      <c r="F44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),243.0)</f>
-        <v>243</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),177.0)</f>
+        <v>177</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в БСП")</f>
-        <v>Запятая в БСП</v>
-      </c>
-      <c r="J44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.0)</f>
-        <v>443</v>
-      </c>
-      <c r="K44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вид деепричастия")</f>
-        <v>Вид деепричастия</v>
-      </c>
-      <c r="L44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),543.0)</f>
-        <v>543</v>
-      </c>
-      <c r="M44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление имен числительных")</f>
-        <v>Нормативное образование и употребление имен числительных</v>
-      </c>
-      <c r="N44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),643.0)</f>
-        <v>643</v>
-      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проведение различных видов синтаксического анализа словосочетания и предложения")</f>
-        <v>Проведение различных видов синтаксического анализа словосочетания и предложения</v>
-      </c>
-      <c r="T44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),943.0)</f>
-        <v>943</v>
-      </c>
+      <c r="Q44" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Публицистический стиль речи")</f>
+        <v>Публицистический стиль речи</v>
+      </c>
+      <c r="R44" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),848.0)</f>
+        <v>848</v>
+      </c>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
@@ -3814,67 +3115,43 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ЕВ-/-ИВ-")</f>
-        <v>Суффиксы прилагательных -ЕВ-/-ИВ-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слитное и раздельное написание производных предлогов")</f>
+        <v>Слитное и раздельное написание производных предлогов</v>
       </c>
       <c r="B45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),72.0)</f>
+        <v>72</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с однородными членами, связанными повторяющимися союзами, которые обозначают устойчивое выражение")</f>
-        <v>Пунктуация в простом предложении с однородными членами, связанными повторяющимися союзами, которые обозначают устойчивое выражение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в бессоюзном сложном предложении (синтаксический анализ)")</f>
+        <v>Запятая в бессоюзном сложном предложении (синтаксический анализ)</v>
       </c>
       <c r="D45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
-        <v>144</v>
-      </c>
-      <c r="E45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эпифора")</f>
-        <v>Эпифора</v>
-      </c>
-      <c r="F45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),244.0)</f>
-        <v>244</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
+        <v>178</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в ССП")</f>
-        <v>Запятая в ССП</v>
-      </c>
-      <c r="J45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
-        <v>444</v>
-      </c>
-      <c r="K45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Союзы")</f>
-        <v>Союзы</v>
-      </c>
-      <c r="L45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),544.0)</f>
-        <v>544</v>
-      </c>
-      <c r="M45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление именительного падежа множественного числа существительных")</f>
-        <v>Нормативное образование и употребление именительного падежа множественного числа существительных</v>
-      </c>
-      <c r="N45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),644.0)</f>
-        <v>644</v>
-      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иметь представление о роли, значении и функциях русского языка")</f>
-        <v>Иметь представление о роли, значении и функциях русского языка</v>
-      </c>
-      <c r="T45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),944.0)</f>
-        <v>944</v>
-      </c>
+      <c r="Q45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Антонимы (в том числе контекстные)")</f>
+        <v>Антонимы (в том числе контекстные)</v>
+      </c>
+      <c r="R45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),849.0)</f>
+        <v>849</v>
+      </c>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
@@ -3884,67 +3161,43 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласная в суффиксах прилагательных после шипящих под ударением")</f>
-        <v>Гласная в суффиксах прилагательных после шипящих под ударением</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слитное и раздельное написание наречий")</f>
+        <v>Слитное и раздельное написание наречий</v>
       </c>
       <c r="B46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
-        <v>45</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
+        <v>73</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с несколькими рядами однородных членов")</f>
-        <v>Пунктуация в простом предложении с несколькими рядами однородных членов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в предложении с обособленными определениями (синтаксический анализ)")</f>
+        <v>Запятая в предложении с обособленными определениями (синтаксический анализ)</v>
       </c>
       <c r="D46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
-      </c>
-      <c r="E46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексический повтор")</f>
-        <v>Лексический повтор</v>
-      </c>
-      <c r="F46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.0)</f>
-        <v>245</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),179.0)</f>
+        <v>179</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при обособленном определении")</f>
-        <v>Запятая при обособленном определении</v>
-      </c>
-      <c r="J46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),445.0)</f>
-        <v>445</v>
-      </c>
-      <c r="K46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Простые и составные союзы")</f>
-        <v>Простые и составные союзы</v>
-      </c>
-      <c r="L46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),545.0)</f>
-        <v>545</v>
-      </c>
-      <c r="M46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление родительного падежа множественного числа существительных")</f>
-        <v>Нормативное образование и употребление родительного падежа множественного числа существительных</v>
-      </c>
-      <c r="N46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),645.0)</f>
-        <v>645</v>
-      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знание качеств, свойств и норм речи")</f>
-        <v>Знание качеств, свойств и норм речи</v>
-      </c>
-      <c r="T46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),945.0)</f>
-        <v>945</v>
-      </c>
+      <c r="Q46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синонимы (в том числе контекстные)")</f>
+        <v>Синонимы (в том числе контекстные)</v>
+      </c>
+      <c r="R46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
+      </c>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
@@ -3954,67 +3207,43 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ЧИВ-/-ЛИВ-/-ИСТ-")</f>
-        <v>Суффиксы прилагательных -ЧИВ-/-ЛИВ-/-ИСТ-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Раздельное написание частиц")</f>
+        <v>Раздельное написание частиц</v>
       </c>
       <c r="B47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
-        <v>46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
+        <v>74</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в ССП с общим членом")</f>
-        <v>Знаки препинания в ССП с общим членом</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в предложении с обособленными обстоятельствами (синтаксический анализ)")</f>
+        <v>Запятая в предложении с обособленными обстоятельствами (синтаксический анализ)</v>
       </c>
       <c r="D47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
-        <v>146</v>
-      </c>
-      <c r="E47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синтаксический параллелизм")</f>
-        <v>Синтаксический параллелизм</v>
-      </c>
-      <c r="F47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),246.0)</f>
-        <v>246</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),180.0)</f>
+        <v>180</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при обособленном приложении")</f>
-        <v>Запятая при обособленном приложении</v>
-      </c>
-      <c r="J47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.0)</f>
-        <v>446</v>
-      </c>
-      <c r="K47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Производные и непроизводные союзы")</f>
-        <v>Производные и непроизводные союзы</v>
-      </c>
-      <c r="L47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),546.0)</f>
-        <v>546</v>
-      </c>
-      <c r="M47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление сравнительной и превосходной степеней имён прилагательных и наречий")</f>
-        <v>Нормативное образование и употребление сравнительной и превосходной степеней имён прилагательных и наречий</v>
-      </c>
-      <c r="N47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),646.0)</f>
-        <v>646</v>
-      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знание структуры ЕГЭ и ориентирование в распределении баллов")</f>
-        <v>Знание структуры ЕГЭ и ориентирование в распределении баллов</v>
-      </c>
-      <c r="T47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),946.0)</f>
-        <v>946</v>
-      </c>
+      <c r="Q47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Книжная лексика")</f>
+        <v>Книжная лексика</v>
+      </c>
+      <c r="R47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),851.0)</f>
+        <v>851</v>
+      </c>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
@@ -4024,53 +3253,41 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ЕВАТ-/-ОВАТ-/-ЕВИТ-")</f>
-        <v>Суффиксы прилагательных -ЕВАТ-/-ОВАТ-/-ЕВИТ-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание слов с частью ПОЛ- и ПОЛУ-")</f>
+        <v>Правописание слов с частью ПОЛ- и ПОЛУ-</v>
       </c>
       <c r="B48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47.0)</f>
-        <v>47</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Градация")</f>
-        <v>Градация</v>
-      </c>
-      <c r="F48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.0)</f>
-        <v>247</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),75.0)</f>
+        <v>75</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в предложении с обособленными приложениями (синтаксический анализ)")</f>
+        <v>Запятая в предложении с обособленными приложениями (синтаксический анализ)</v>
+      </c>
+      <c r="D48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),181.0)</f>
+        <v>181</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при обособленном обстоятельстве")</f>
-        <v>Запятая при обособленном обстоятельстве</v>
-      </c>
-      <c r="J48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),447.0)</f>
-        <v>447</v>
-      </c>
-      <c r="K48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Двойные союзы")</f>
-        <v>Двойные союзы</v>
-      </c>
-      <c r="L48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),547.0)</f>
-        <v>547</v>
-      </c>
-      <c r="M48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление форм глаголов")</f>
-        <v>Нормативное образование и употребление форм глаголов</v>
-      </c>
-      <c r="N48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),647.0)</f>
-        <v>647</v>
-      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
+      <c r="Q48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разговорная лексика")</f>
+        <v>Разговорная лексика</v>
+      </c>
+      <c r="R48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),852.0)</f>
+        <v>852</v>
+      </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
@@ -4082,53 +3299,41 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -АН-/-АТ-/-ЧАТ-")</f>
-        <v>Суффиксы прилагательных -АН-/-АТ-/-ЧАТ-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- в суффиксах отымённых прилагательных -ИН-/-АН-/-ЯН-")</f>
+        <v>Правописание -Н- и -НН- в суффиксах отымённых прилагательных -ИН-/-АН-/-ЯН-</v>
       </c>
       <c r="B49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Парцелляция")</f>
-        <v>Парцелляция</v>
-      </c>
-      <c r="F49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
-        <v>248</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),78.0)</f>
+        <v>78</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в предложении с уточняющими членами (синтаксический анализ)")</f>
+        <v>Запятая в предложении с уточняющими членами (синтаксический анализ)</v>
+      </c>
+      <c r="D49" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),182.0)</f>
+        <v>182</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при уточнении времени и места")</f>
-        <v>Запятая при уточнении времени и места</v>
-      </c>
-      <c r="J49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),448.0)</f>
-        <v>448</v>
-      </c>
-      <c r="K49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сочинительные союзы")</f>
-        <v>Сочинительные союзы</v>
-      </c>
-      <c r="L49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),548.0)</f>
-        <v>548</v>
-      </c>
-      <c r="M49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Однокоренные слова. Корневая омонимия. Формы слова")</f>
-        <v>Однокоренные слова. Корневая омонимия. Формы слова</v>
-      </c>
-      <c r="N49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),648.0)</f>
-        <v>648</v>
-      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
+      <c r="Q49" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Просторечная лексика")</f>
+        <v>Просторечная лексика</v>
+      </c>
+      <c r="R49" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),853.0)</f>
+        <v>853</v>
+      </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
@@ -4140,53 +3345,41 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -К-/-СК-")</f>
-        <v>Суффиксы прилагательных -К-/-СК-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- в суффиксах отымённых прилагательных -ЕНН-/-ОНН-")</f>
+        <v>Правописание -Н- и -НН- в суффиксах отымённых прилагательных -ЕНН-/-ОНН-</v>
       </c>
       <c r="B50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
-        <v>49</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формы речи. Диалог, монолог")</f>
-        <v>Формы речи. Диалог, монолог</v>
-      </c>
-      <c r="F50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),249.0)</f>
-        <v>249</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),79.0)</f>
+        <v>79</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в предложении с вводными и вставными конструкциями (синтаксический анализ)")</f>
+        <v>Запятая в предложении с вводными и вставными конструкциями (синтаксический анализ)</v>
+      </c>
+      <c r="D50" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),183.0)</f>
+        <v>183</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при вводном слове (вводной конструкции)")</f>
-        <v>Запятая при вводном слове (вводной конструкции)</v>
-      </c>
-      <c r="J50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449.0)</f>
-        <v>449</v>
-      </c>
-      <c r="K50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разряды сочинительных союзов")</f>
-        <v>Разряды сочинительных союзов</v>
-      </c>
-      <c r="L50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),549.0)</f>
-        <v>549</v>
-      </c>
-      <c r="M50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание безударных чередующихся гласных в корне слова")</f>
-        <v>Правописание безударных чередующихся гласных в корне слова</v>
-      </c>
-      <c r="N50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),649.0)</f>
-        <v>649</v>
-      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
+      <c r="Q50" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Диалектизмы")</f>
+        <v>Диалектизмы</v>
+      </c>
+      <c r="R50" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),854.0)</f>
+        <v>854</v>
+      </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
@@ -4198,53 +3391,41 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ЕНЬК-/-ОНЬК-")</f>
-        <v>Суффиксы прилагательных -ЕНЬК-/-ОНЬК-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- в суффиксах отымённых прилагательных на стыке морфем")</f>
+        <v>Правописание -Н- и -НН- в суффиксах отымённых прилагательных на стыке морфем</v>
       </c>
       <c r="B51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ошибки в построении предложений с однородными членами")</f>
-        <v>Ошибки в построении предложений с однородными членами</v>
-      </c>
-      <c r="F51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
-        <v>250</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
+        <v>80</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в предложении с обращениями (синтаксический анализ)")</f>
+        <v>Запятая в предложении с обращениями (синтаксический анализ)</v>
+      </c>
+      <c r="D51" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),184.0)</f>
+        <v>184</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при обращении")</f>
-        <v>Запятая при обращении</v>
-      </c>
-      <c r="J51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),450.0)</f>
-        <v>450</v>
-      </c>
-      <c r="K51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Подчинительные союзы")</f>
-        <v>Подчинительные союзы</v>
-      </c>
-      <c r="L51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),550.0)</f>
-        <v>550</v>
-      </c>
-      <c r="M51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание разделительных Ъ/Ь")</f>
-        <v>Правописание разделительных Ъ/Ь</v>
-      </c>
-      <c r="N51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),650.0)</f>
-        <v>650</v>
-      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
+      <c r="Q51" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Жаргонизмы")</f>
+        <v>Жаргонизмы</v>
+      </c>
+      <c r="R51" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),855.0)</f>
+        <v>855</v>
+      </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
@@ -4256,53 +3437,41 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ЕНСК-/-ИНСК-, -ЕСК-")</f>
-        <v>Суффиксы прилагательных -ЕНСК-/-ИНСК-, -ЕСК-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- в отглагольных прилагательных и причастиях")</f>
+        <v>Правописание -Н- и -НН- в отглагольных прилагательных и причастиях</v>
       </c>
       <c r="B52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
-        <v>51</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ошибки в построении предложений с причастными оборотами")</f>
-        <v>Ошибки в построении предложений с причастными оборотами</v>
-      </c>
-      <c r="F52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),251.0)</f>
-        <v>251</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
+        <v>82</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в предложении с междометиями (синтаксический анализ)")</f>
+        <v>Запятая в предложении с междометиями (синтаксический анализ)</v>
+      </c>
+      <c r="D52" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),185.0)</f>
+        <v>185</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в СПП")</f>
-        <v>Запятая в СПП</v>
-      </c>
-      <c r="J52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),451.0)</f>
-        <v>451</v>
-      </c>
-      <c r="K52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разряды подчинительных союзов по значению")</f>
-        <v>Разряды подчинительных союзов по значению</v>
-      </c>
-      <c r="L52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),551.0)</f>
-        <v>551</v>
-      </c>
-      <c r="M52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание приставок на -З и -С")</f>
-        <v>Правописание приставок на -З и -С</v>
-      </c>
-      <c r="N52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),651.0)</f>
-        <v>651</v>
-      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
+      <c r="Q52" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Профессионализмы")</f>
+        <v>Профессионализмы</v>
+      </c>
+      <c r="R52" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),856.0)</f>
+        <v>856</v>
+      </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
@@ -4314,53 +3483,41 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласная перед Ч в прилагательных на -ЧИЙ")</f>
-        <v>Гласная перед Ч в прилагательных на -ЧИЙ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -НН- в кратких отглагольных прилагательных")</f>
+        <v>Правописание -НН- в кратких отглагольных прилагательных</v>
       </c>
       <c r="B53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
-        <v>52</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ошибки в построении предложений с деепричастными оборотами")</f>
-        <v>Ошибки в построении предложений с деепричастными оборотами</v>
-      </c>
-      <c r="F53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),252.0)</f>
-        <v>252</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
+        <v>83</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в сложноподчинённом предложении (синтаксический анализ)")</f>
+        <v>Запятая в сложноподчинённом предложении (синтаксический анализ)</v>
+      </c>
+      <c r="D53" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),186.0)</f>
+        <v>186</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при сравнительном обороте")</f>
-        <v>Запятая при сравнительном обороте</v>
-      </c>
-      <c r="J53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.0)</f>
-        <v>452</v>
-      </c>
-      <c r="K53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Союзные слова")</f>
-        <v>Союзные слова</v>
-      </c>
-      <c r="L53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),552.0)</f>
-        <v>552</v>
-      </c>
-      <c r="M53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неизменяемые суффиксы существительных")</f>
-        <v>Неизменяемые суффиксы существительных</v>
-      </c>
-      <c r="N53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),652.0)</f>
-        <v>652</v>
-      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
+      <c r="Q53" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Термины")</f>
+        <v>Термины</v>
+      </c>
+      <c r="R53" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),857.0)</f>
+        <v>857</v>
+      </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
@@ -4372,53 +3529,41 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -АН-/ЯН-/-ИН-")</f>
-        <v>Суффиксы прилагательных -АН-/ЯН-/-ИН-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Употребление гласных букв А/Я, У/Ю после шипящих и Ц")</f>
+        <v>Употребление гласных букв А/Я, У/Ю после шипящих и Ц</v>
       </c>
       <c r="B54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
-        <v>53</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ошибки в построении предложений с несогласованным приложением")</f>
-        <v>Ошибки в построении предложений с несогласованным приложением</v>
-      </c>
-      <c r="F54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
-        <v>253</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
+        <v>85</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с однородными членами, соединёнными попарно")</f>
+        <v>Пунктуация в простом предложении с однородными членами, соединёнными попарно</v>
+      </c>
+      <c r="D54" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),188.0)</f>
+        <v>188</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при прямой речи")</f>
-        <v>Запятая при прямой речи</v>
-      </c>
-      <c r="J54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),453.0)</f>
-        <v>453</v>
-      </c>
-      <c r="K54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Предлоги")</f>
-        <v>Предлоги</v>
-      </c>
-      <c r="L54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),553.0)</f>
-        <v>553</v>
-      </c>
-      <c r="M54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ЕТ- и -ОТ-")</f>
-        <v>Суффиксы существительных -ЕТ- и -ОТ-</v>
-      </c>
-      <c r="N54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),653.0)</f>
-        <v>653</v>
-      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
+      <c r="Q54" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архаизмы")</f>
+        <v>Архаизмы</v>
+      </c>
+      <c r="R54" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),858.0)</f>
+        <v>858</v>
+      </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
@@ -4430,53 +3575,41 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Омонимия в суффиксах прилагательных -ЯН-/-ЕН-")</f>
-        <v>Омонимия в суффиксах прилагательных -ЯН-/-ЕН-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласные в приставках ПРО-/ПРА-")</f>
+        <v>Гласные в приставках ПРО-/ПРА-</v>
       </c>
       <c r="B55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54.0)</f>
-        <v>54</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ошибки в построении предложений с косвенной речью")</f>
-        <v>Ошибки в построении предложений с косвенной речью</v>
-      </c>
-      <c r="F55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.0)</f>
-        <v>254</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),86.0)</f>
+        <v>86</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с однородными членами, связанными противительным союзом")</f>
+        <v>Пунктуация в простом предложении с однородными членами, связанными противительным союзом</v>
+      </c>
+      <c r="D55" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),189.0)</f>
+        <v>189</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире при обобщающем слове")</f>
-        <v>Тире при обобщающем слове</v>
-      </c>
-      <c r="J55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),454.0)</f>
-        <v>454</v>
-      </c>
-      <c r="K55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Простые и составные предлоги")</f>
-        <v>Простые и составные предлоги</v>
-      </c>
-      <c r="L55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),554.0)</f>
-        <v>554</v>
-      </c>
-      <c r="M55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ЕСТ- и -ОСТ-")</f>
-        <v>Суффиксы существительных -ЕСТ- и -ОСТ-</v>
-      </c>
-      <c r="N55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),654.0)</f>
-        <v>654</v>
-      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
+      <c r="Q55" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Историзмы")</f>
+        <v>Историзмы</v>
+      </c>
+      <c r="R55" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),859.0)</f>
+        <v>859</v>
+      </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
@@ -4488,53 +3621,41 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание личных окончаний глагола 1 спряжения")</f>
-        <v>Правописание личных окончаний глагола 1 спряжения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы глаголов -ОВА(ЕВА)-/-ЫВА(ИВА)-")</f>
+        <v>Суффиксы глаголов -ОВА(ЕВА)-/-ЫВА(ИВА)-</v>
       </c>
       <c r="B56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
-        <v>55</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ошибки в построении сложного предложения")</f>
-        <v>Ошибки в построении сложного предложения</v>
-      </c>
-      <c r="F56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.0)</f>
-        <v>255</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),87.0)</f>
+        <v>87</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире в предложении с обособленными приложениями")</f>
+        <v>Тире в предложении с обособленными приложениями</v>
+      </c>
+      <c r="D56" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),191.0)</f>
+        <v>191</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире при приложении")</f>
-        <v>Тире при приложении</v>
-      </c>
-      <c r="J56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),455.0)</f>
-        <v>455</v>
-      </c>
-      <c r="K56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разряды предлогов по значению")</f>
-        <v>Разряды предлогов по значению</v>
-      </c>
-      <c r="L56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),555.0)</f>
-        <v>555</v>
-      </c>
-      <c r="M56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффикс существительных ЁР")</f>
-        <v>Суффикс существительных ЁР</v>
-      </c>
-      <c r="N56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),655.0)</f>
-        <v>655</v>
-      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
+      <c r="Q56" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неологизмы")</f>
+        <v>Неологизмы</v>
+      </c>
+      <c r="R56" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),860.0)</f>
+        <v>860</v>
+      </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
@@ -4546,53 +3667,35 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание личных окончаний глагола 2 спряжения")</f>
-        <v>Правописание личных окончаний глагола 2 спряжения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ь на конце слов после шипящих")</f>
+        <v>Ь на конце слов после шипящих</v>
       </c>
       <c r="B57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
-        <v>56</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
+        <v>90</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нарушение границ предложения")</f>
-        <v>Нарушение границ предложения</v>
-      </c>
-      <c r="F57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),256.0)</f>
-        <v>256</v>
-      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире при прямой речи")</f>
-        <v>Тире при прямой речи</v>
-      </c>
-      <c r="J57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.0)</f>
-        <v>456</v>
-      </c>
-      <c r="K57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Производные и непроизводные предлоги")</f>
-        <v>Производные и непроизводные предлоги</v>
-      </c>
-      <c r="L57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),556.0)</f>
-        <v>556</v>
-      </c>
-      <c r="M57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласные О и Ё в суффиксах отымённых и отглагольных существительных")</f>
-        <v>Гласные О и Ё в суффиксах отымённых и отглагольных существительных</v>
-      </c>
-      <c r="N57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),656.0)</f>
-        <v>656</v>
-      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
+      <c r="Q57" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Фразеологизмы")</f>
+        <v>Фразеологизмы</v>
+      </c>
+      <c r="R57" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),861.0)</f>
+        <v>861</v>
+      </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
@@ -4604,53 +3707,35 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание личных окончаний глагола с приставкой ВЫ-")</f>
-        <v>Правописание личных окончаний глагола с приставкой ВЫ-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ь в сочетаниях согласных")</f>
+        <v>Ь в сочетаниях согласных</v>
       </c>
       <c r="B58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
-        <v>57</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
+        <v>93</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синтаксический разбор предложения")</f>
-        <v>Синтаксический разбор предложения</v>
-      </c>
-      <c r="F58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),257.0)</f>
-        <v>257</v>
-      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире в диалоге")</f>
-        <v>Тире в диалоге</v>
-      </c>
-      <c r="J58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),457.0)</f>
-        <v>457</v>
-      </c>
-      <c r="K58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Междометия")</f>
-        <v>Междометия</v>
-      </c>
-      <c r="L58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),557.0)</f>
-        <v>557</v>
-      </c>
-      <c r="M58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание суффикса глаголов перед ударным -ВА-")</f>
-        <v>Правописание суффикса глаголов перед ударным -ВА-</v>
-      </c>
-      <c r="N58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),657.0)</f>
-        <v>657</v>
-      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
+      <c r="Q58" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эмоционально-оценочная лексика")</f>
+        <v>Эмоционально-оценочная лексика</v>
+      </c>
+      <c r="R58" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),862.0)</f>
+        <v>862</v>
+      </c>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
@@ -4662,53 +3747,35 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание личных окончаний разноспрягаемых глаголов")</f>
-        <v>Правописание личных окончаний разноспрягаемых глаголов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ь в инфинитиве глагола")</f>
+        <v>Ь в инфинитиве глагола</v>
       </c>
       <c r="B59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
-        <v>58</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
+        <v>94</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вводные слова и конструкции")</f>
-        <v>Вводные слова и конструкции</v>
-      </c>
-      <c r="F59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
-        <v>258</v>
-      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире между словами, указывающие пространственные, временные или количественные пределы")</f>
-        <v>Тире между словами, указывающие пространственные, временные или количественные пределы</v>
-      </c>
-      <c r="J59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
-        <v>458</v>
-      </c>
-      <c r="K59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разряды местоимений")</f>
-        <v>Разряды местоимений</v>
-      </c>
-      <c r="L59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),558.0)</f>
-        <v>558</v>
-      </c>
-      <c r="M59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Глагольные суффиксы в причастиях и деепричастиях")</f>
-        <v>Глагольные суффиксы в причастиях и деепричастиях</v>
-      </c>
-      <c r="N59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),658.0)</f>
-        <v>658</v>
-      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
+      <c r="Q59" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вводные и вставные конструкции")</f>
+        <v>Вводные и вставные конструкции</v>
+      </c>
+      <c r="R59" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),863.0)</f>
+        <v>863</v>
+      </c>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
@@ -4720,53 +3787,35 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание гласных в суффиксах причастий настоящего времени")</f>
-        <v>Правописание гласных в суффиксах причастий настоящего времени</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание Ь в глаголах повелительного наклонения")</f>
+        <v>Правописание Ь в глаголах повелительного наклонения</v>
       </c>
       <c r="B60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),59.0)</f>
-        <v>59</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ССП")</f>
-        <v>ССП</v>
-      </c>
-      <c r="F60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
-        <v>259</v>
-      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Двоеточие при однородных членах")</f>
-        <v>Двоеточие при однородных членах</v>
-      </c>
-      <c r="J60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),459.0)</f>
-        <v>459</v>
-      </c>
-      <c r="K60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Частицы")</f>
-        <v>Частицы</v>
-      </c>
-      <c r="L60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),559.0)</f>
-        <v>559</v>
-      </c>
-      <c r="M60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ударная буква Ё в суффиксе глагола после шипящих")</f>
-        <v>Ударная буква Ё в суффиксе глагола после шипящих</v>
-      </c>
-      <c r="N60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),659.0)</f>
-        <v>659</v>
-      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
+      <c r="Q60" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Восклицательные предложения")</f>
+        <v>Восклицательные предложения</v>
+      </c>
+      <c r="R60" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),864.0)</f>
+        <v>864</v>
+      </c>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
@@ -4778,53 +3827,35 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание гласных в суффиксах причастий прошедшего времени")</f>
-        <v>Правописание гласных в суффиксах причастий прошедшего времени</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание слов с соединительными гласными -О-/-Е-")</f>
+        <v>Правописание слов с соединительными гласными -О-/-Е-</v>
       </c>
       <c r="B61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
-        <v>60</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
+        <v>98</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"СПП")</f>
-        <v>СПП</v>
-      </c>
-      <c r="F61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
-        <v>260</v>
-      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Двоеточие при прямой речи")</f>
-        <v>Двоеточие при прямой речи</v>
-      </c>
-      <c r="J61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),460.0)</f>
-        <v>460</v>
-      </c>
-      <c r="K61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формообразующие частицы")</f>
-        <v>Формообразующие частицы</v>
-      </c>
-      <c r="L61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),560.0)</f>
-        <v>560</v>
-      </c>
-      <c r="M61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Глагольные суффиксы в причастиях и деепричастиях")</f>
-        <v>Глагольные суффиксы в причастиях и деепричастиях</v>
-      </c>
-      <c r="N61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),660.0)</f>
-        <v>660</v>
-      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
+      <c r="Q61" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вопросительные предложения")</f>
+        <v>Вопросительные предложения</v>
+      </c>
+      <c r="R61" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),865.0)</f>
+        <v>865</v>
+      </c>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
@@ -4836,53 +3867,35 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание гласных перед суффиксом деепричастия")</f>
-        <v>Правописание гласных перед суффиксом деепричастия</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слитное и раздельное написание вводных слов, существительных, местоимений, прилагательных, числительных и омонимичных конструкций")</f>
+        <v>Слитное и раздельное написание вводных слов, существительных, местоимений, прилагательных, числительных и омонимичных конструкций</v>
       </c>
       <c r="B62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),61.0)</f>
-        <v>61</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99.0)</f>
+        <v>99</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"БСП")</f>
-        <v>БСП</v>
-      </c>
-      <c r="F62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
-        <v>261</v>
-      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Повествование")</f>
-        <v>Повествование</v>
-      </c>
-      <c r="J62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),461.0)</f>
-        <v>461</v>
-      </c>
-      <c r="K62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смыслообразующие частицы и их разряды")</f>
-        <v>Смыслообразующие частицы и их разряды</v>
-      </c>
-      <c r="L62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),561.0)</f>
-        <v>561</v>
-      </c>
-      <c r="M62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ЧИВ-/-ЛИВ")</f>
-        <v>Суффиксы прилагательных -ЧИВ-/-ЛИВ</v>
-      </c>
-      <c r="N62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),661.0)</f>
-        <v>661</v>
-      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
+      <c r="Q62" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Риторическое восклицание")</f>
+        <v>Риторическое восклицание</v>
+      </c>
+      <c r="R62" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),866.0)</f>
+        <v>866</v>
+      </c>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
@@ -4894,53 +3907,35 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание частиц НЕ и НИ")</f>
-        <v>Правописание частиц НЕ и НИ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -НН- в кратких отглагольных прилагательных")</f>
+        <v>Правописание -НН- в кратких отглагольных прилагательных</v>
       </c>
       <c r="B63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),62.0)</f>
-        <v>62</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1101.0)</f>
+        <v>1101</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Однородное, последовательное, неоднородное подчинение придаточных")</f>
-        <v>Однородное, последовательное, неоднородное подчинение придаточных</v>
-      </c>
-      <c r="F63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
-        <v>262</v>
-      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Описание")</f>
-        <v>Описание</v>
-      </c>
-      <c r="J63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),462.0)</f>
-        <v>462</v>
-      </c>
-      <c r="K63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Морфологический разбор слова")</f>
-        <v>Морфологический разбор слова</v>
-      </c>
-      <c r="L63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),562.0)</f>
-        <v>562</v>
-      </c>
-      <c r="M63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффикс прилагательных -ИСТ-")</f>
-        <v>Суффикс прилагательных -ИСТ-</v>
-      </c>
-      <c r="N63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),662.0)</f>
-        <v>662</v>
-      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
+      <c r="Q63" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Риторический вопрос")</f>
+        <v>Риторический вопрос</v>
+      </c>
+      <c r="R63" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),867.0)</f>
+        <v>867</v>
+      </c>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
@@ -4952,47 +3947,35 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание частиц НЕ и НИ с глаголами и деепричастиями")</f>
-        <v>Правописание частиц НЕ и НИ с глаголами и деепричастиями</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффикс существительных ЁР")</f>
+        <v>Суффикс существительных ЁР</v>
       </c>
       <c r="B64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),63.0)</f>
-        <v>63</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1102.0)</f>
+        <v>1102</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Грамматическая основа")</f>
-        <v>Грамматическая основа</v>
-      </c>
-      <c r="F64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
-        <v>263</v>
-      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рассуждение")</f>
-        <v>Рассуждение</v>
-      </c>
-      <c r="J64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),463.0)</f>
-        <v>463</v>
-      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ЧЕСК-/-ИЧЕСК-")</f>
-        <v>Суффиксы прилагательных -ЧЕСК-/-ИЧЕСК-</v>
-      </c>
-      <c r="N64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),663.0)</f>
-        <v>663</v>
-      </c>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
+      <c r="Q64" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Односоставное предложение")</f>
+        <v>Односоставное предложение</v>
+      </c>
+      <c r="R64" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),868.0)</f>
+        <v>868</v>
+      </c>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
@@ -5004,47 +3987,35 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Различие приставки НЕДО- от сочетания слов НЕ ДО-")</f>
-        <v>Различие приставки НЕДО- от сочетания слов НЕ ДО-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласные О и Ё после шипящих в суффиксах отымённых и отглагольных существительных")</f>
+        <v>Гласные О и Ё после шипящих в суффиксах отымённых и отглагольных существительных</v>
       </c>
       <c r="B65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),64.0)</f>
-        <v>64</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1103.0)</f>
+        <v>1103</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обособленные обстоятельства")</f>
-        <v>Обособленные обстоятельства</v>
-      </c>
-      <c r="F65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),264.0)</f>
-        <v>264</v>
-      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулировки, обозначающие отношения между предложениями")</f>
-        <v>Формулировки, обозначающие отношения между предложениями</v>
-      </c>
-      <c r="J65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),464.0)</f>
-        <v>464</v>
-      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ИЧ-/-ЕЧ-")</f>
-        <v>Суффиксы прилагательных -ИЧ-/-ЕЧ-</v>
-      </c>
-      <c r="N65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),664.0)</f>
-        <v>664</v>
-      </c>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
+      <c r="Q65" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неполное предложение")</f>
+        <v>Неполное предложение</v>
+      </c>
+      <c r="R65" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),869.0)</f>
+        <v>869</v>
+      </c>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
@@ -5056,47 +4027,35 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание частиц НЕ и НИ с существительными, прилагательными и наречиями на -о")</f>
-        <v>Правописание частиц НЕ и НИ с существительными, прилагательными и наречиями на -о</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Глагольные суффиксы в причастиях и деепричастиях")</f>
+        <v>Глагольные суффиксы в причастиях и деепричастиях</v>
       </c>
       <c r="B66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),65.0)</f>
-        <v>65</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1104.0)</f>
+        <v>1104</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обособленные определения")</f>
-        <v>Обособленные определения</v>
-      </c>
-      <c r="F66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.0)</f>
-        <v>265</v>
-      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексический анализ слова в тексте")</f>
-        <v>Лексический анализ слова в тексте</v>
-      </c>
-      <c r="J66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),465.0)</f>
-        <v>465</v>
-      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласная перед Н и НН в отымённых прилагательных")</f>
-        <v>Гласная перед Н и НН в отымённых прилагательных</v>
-      </c>
-      <c r="N66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),665.0)</f>
-        <v>665</v>
-      </c>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
+      <c r="Q66" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ряд однородных членов предложения")</f>
+        <v>Ряд однородных членов предложения</v>
+      </c>
+      <c r="R66" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),870.0)</f>
+        <v>870</v>
+      </c>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
@@ -5108,47 +4067,35 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание частиц НЕ и НИ с причастиями")</f>
-        <v>Правописание частиц НЕ и НИ с причастиями</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ударная буква Ё в суффиксе глагола после шипящих")</f>
+        <v>Ударная буква Ё в суффиксе глагола после шипящих</v>
       </c>
       <c r="B67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
-        <v>66</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1105.0)</f>
+        <v>1105</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обособленные приложения")</f>
-        <v>Обособленные приложения</v>
-      </c>
-      <c r="F67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.0)</f>
-        <v>266</v>
-      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Личные местоимения как средство связи")</f>
-        <v>Личные местоимения как средство связи</v>
-      </c>
-      <c r="J67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),466.0)</f>
-        <v>466</v>
-      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы наречий")</f>
-        <v>Суффиксы наречий</v>
-      </c>
-      <c r="N67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),666.0)</f>
-        <v>666</v>
-      </c>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
+      <c r="Q67" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обособленные члены предложения")</f>
+        <v>Обособленные члены предложения</v>
+      </c>
+      <c r="R67" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),871.0)</f>
+        <v>871</v>
+      </c>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
@@ -5160,47 +4107,35 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание частиц НЕ и НИ с наречиями")</f>
-        <v>Правописание частиц НЕ и НИ с наречиями</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ЧЕСК-/-ИЧЕСК-")</f>
+        <v>Суффиксы прилагательных -ЧЕСК-/-ИЧЕСК-</v>
       </c>
       <c r="B68" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
-        <v>67</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1106.0)</f>
+        <v>1106</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вставные конструкции")</f>
-        <v>Вставные конструкции</v>
-      </c>
-      <c r="F68" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.0)</f>
-        <v>267</v>
-      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Притяжательные местоимения как средство связи")</f>
-        <v>Притяжательные местоимения как средство связи</v>
-      </c>
-      <c r="J68" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),467.0)</f>
-        <v>467</v>
-      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание безударных личных окончаний глаголов-исключений")</f>
-        <v>Правописание безударных личных окончаний глаголов-исключений</v>
-      </c>
-      <c r="N68" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),667.0)</f>
-        <v>667</v>
-      </c>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
+      <c r="Q68" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сравнительный оборот")</f>
+        <v>Сравнительный оборот</v>
+      </c>
+      <c r="R68" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),872.0)</f>
+        <v>872</v>
+      </c>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
@@ -5212,47 +4147,35 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание частиц НЕ и НИ с краткими прилагательными, не имеющими полную форму")</f>
-        <v>Правописание частиц НЕ и НИ с краткими прилагательными, не имеющими полную форму</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ИЧ-/-ЕЧ-")</f>
+        <v>Суффиксы прилагательных -ИЧ-/-ЕЧ-</v>
       </c>
       <c r="B69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),68.0)</f>
-        <v>68</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1107.0)</f>
+        <v>1107</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1" t="str">
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обращение")</f>
         <v>Обращение</v>
       </c>
-      <c r="F69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0)</f>
-        <v>268</v>
-      </c>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Указательные местоимения как средство связи")</f>
-        <v>Указательные местоимения как средство связи</v>
-      </c>
-      <c r="J69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),468.0)</f>
-        <v>468</v>
-      </c>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание суффиксов причастий УЩ, ЮЩ, АЩ, ЯЩ")</f>
-        <v>Правописание суффиксов причастий УЩ, ЮЩ, АЩ, ЯЩ</v>
-      </c>
-      <c r="N69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),668.0)</f>
-        <v>668</v>
-      </c>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
+      <c r="R69" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),873.0)</f>
+        <v>873</v>
+      </c>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
@@ -5264,47 +4187,35 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание частиц НЕ и НИ с местоимениями")</f>
-        <v>Правописание частиц НЕ и НИ с местоимениями</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласная перед Н и НН в отымённых прилагательных")</f>
+        <v>Гласная перед Н и НН в отымённых прилагательных</v>
       </c>
       <c r="B70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),69.0)</f>
-        <v>69</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1108.0)</f>
+        <v>1108</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Предложения, противопоставленные по смыслу")</f>
-        <v>Предложения, противопоставленные по смыслу</v>
-      </c>
-      <c r="F70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),270.0)</f>
-        <v>270</v>
-      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определительные местоимения как средство связи")</f>
-        <v>Определительные местоимения как средство связи</v>
-      </c>
-      <c r="J70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),469.0)</f>
-        <v>469</v>
-      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание суффиксов причастий ЕМ и ИМ")</f>
-        <v>Правописание суффиксов причастий ЕМ и ИМ</v>
-      </c>
-      <c r="N70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),669.0)</f>
-        <v>669</v>
-      </c>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
+      <c r="Q70" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Авторские знаки препинания")</f>
+        <v>Авторские знаки препинания</v>
+      </c>
+      <c r="R70" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),874.0)</f>
+        <v>874</v>
+      </c>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
@@ -5316,47 +4227,35 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание частиц НЕ и НИ с предлогами, числительными, союзами и частицами")</f>
-        <v>Правописание частиц НЕ и НИ с предлогами, числительными, союзами и частицами</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы наречий")</f>
+        <v>Суффиксы наречий</v>
       </c>
       <c r="B71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
-        <v>70</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1109.0)</f>
+        <v>1109</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Предложения, поясняющие, раскрывающие мысль")</f>
-        <v>Предложения, поясняющие, раскрывающие мысль</v>
-      </c>
-      <c r="F71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
-        <v>271</v>
-      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тропы")</f>
-        <v>Тропы</v>
-      </c>
-      <c r="J71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),470.0)</f>
-        <v>470</v>
-      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="M71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание гласной перед НН в причастиях")</f>
-        <v>Правописание гласной перед НН в причастиях</v>
-      </c>
-      <c r="N71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),670.0)</f>
-        <v>670</v>
-      </c>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
+      <c r="Q71" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анафора")</f>
+        <v>Анафора</v>
+      </c>
+      <c r="R71" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),875.0)</f>
+        <v>875</v>
+      </c>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
@@ -5368,47 +4267,35 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слитное и раздельное написание союзов")</f>
-        <v>Слитное и раздельное написание союзов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание безударных личных окончаний глаголов-исключений")</f>
+        <v>Правописание безударных личных окончаний глаголов-исключений</v>
       </c>
       <c r="B72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),71.0)</f>
-        <v>71</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1110.0)</f>
+        <v>1110</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Предложения, указывающие на следствие")</f>
-        <v>Предложения, указывающие на следствие</v>
-      </c>
-      <c r="F72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),272.0)</f>
-        <v>272</v>
-      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексические средства выразительности")</f>
-        <v>Лексические средства выразительности</v>
-      </c>
-      <c r="J72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),471.0)</f>
-        <v>471</v>
-      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-      <c r="M72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание гласной перед -ВШ- в причастиях")</f>
-        <v>Правописание гласной перед -ВШ- в причастиях</v>
-      </c>
-      <c r="N72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),671.0)</f>
-        <v>671</v>
-      </c>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
+      <c r="Q72" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вопросно-ответная форма изложения")</f>
+        <v>Вопросно-ответная форма изложения</v>
+      </c>
+      <c r="R72" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),876.0)</f>
+        <v>876</v>
+      </c>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
@@ -5420,47 +4307,35 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слитное и раздельное написание предлогов")</f>
-        <v>Слитное и раздельное написание предлогов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание суффиксов причастий УЩ, ЮЩ, АЩ, ЯЩ")</f>
+        <v>Правописание суффиксов причастий УЩ, ЮЩ, АЩ, ЯЩ</v>
       </c>
       <c r="B73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),72.0)</f>
-        <v>72</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1111.0)</f>
+        <v>1111</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Предложения, указывающие на причину")</f>
-        <v>Предложения, указывающие на причину</v>
-      </c>
-      <c r="F73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
-        <v>273</v>
-      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синтаксические средства выразительности")</f>
-        <v>Синтаксические средства выразительности</v>
-      </c>
-      <c r="J73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),472.0)</f>
-        <v>472</v>
-      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="M73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словом, которое без НЕ не употребляется")</f>
-        <v>Написание НЕ со словом, которое без НЕ не употребляется</v>
-      </c>
-      <c r="N73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),672.0)</f>
-        <v>672</v>
-      </c>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
+      <c r="Q73" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Градация")</f>
+        <v>Градация</v>
+      </c>
+      <c r="R73" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),877.0)</f>
+        <v>877</v>
+      </c>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
@@ -5472,47 +4347,35 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слитное и раздельное написание наречий")</f>
-        <v>Слитное и раздельное написание наречий</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание суффиксов причастий ЕМ и ИМ")</f>
+        <v>Правописание суффиксов причастий ЕМ и ИМ</v>
       </c>
       <c r="B74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
-        <v>73</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1112.0)</f>
+        <v>1112</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Предложения, содержащие ответ на вопрос")</f>
-        <v>Предложения, содержащие ответ на вопрос</v>
-      </c>
-      <c r="F74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),274.0)</f>
-        <v>274</v>
-      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приёмы")</f>
-        <v>Приёмы</v>
-      </c>
-      <c r="J74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),473.0)</f>
-        <v>473</v>
-      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словом, у которого есть синоним без НЕ")</f>
-        <v>Написание НЕ со словом, у которого есть синоним без НЕ</v>
-      </c>
-      <c r="N74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),673.0)</f>
-        <v>673</v>
-      </c>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
+      <c r="Q74" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Инверсия")</f>
+        <v>Инверсия</v>
+      </c>
+      <c r="R74" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),878.0)</f>
+        <v>878</v>
+      </c>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
@@ -5524,47 +4387,35 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слитное и раздельное написание частиц (в том числе ЖЕ, БЫ)")</f>
-        <v>Слитное и раздельное написание частиц (в том числе ЖЕ, БЫ)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание гласной перед НН в причастиях")</f>
+        <v>Правописание гласной перед НН в причастиях</v>
       </c>
       <c r="B75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
-        <v>74</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1113.0)</f>
+        <v>1113</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обособленные дополнения")</f>
-        <v>Обособленные дополнения</v>
-      </c>
-      <c r="F75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),275.0)</f>
-        <v>275</v>
-      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Форма речи")</f>
-        <v>Форма речи</v>
-      </c>
-      <c r="J75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),474.0)</f>
-        <v>474</v>
-      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="M75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с полными одиночными причастиями")</f>
-        <v>Написание НЕ с полными одиночными причастиями</v>
-      </c>
-      <c r="N75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),674.0)</f>
-        <v>674</v>
-      </c>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
+      <c r="Q75" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексический повтор")</f>
+        <v>Лексический повтор</v>
+      </c>
+      <c r="R75" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),879.0)</f>
+        <v>879</v>
+      </c>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
@@ -5576,41 +4427,35 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание слов с частью ПОЛ-")</f>
-        <v>Правописание слов с частью ПОЛ-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание гласной перед -ВШ- в причастиях")</f>
+        <v>Правописание гласной перед -ВШ- в причастиях</v>
       </c>
       <c r="B76" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),75.0)</f>
-        <v>75</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1114.0)</f>
+        <v>1114</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прямая и косвенная речь")</f>
-        <v>Прямая и косвенная речь</v>
-      </c>
-      <c r="F76" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
-        <v>276</v>
-      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словами с наречиями меры и степени")</f>
-        <v>Написание НЕ со словами с наречиями меры и степени</v>
-      </c>
-      <c r="N76" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),675.0)</f>
-        <v>675</v>
-      </c>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
+      <c r="Q76" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Парцелляция")</f>
+        <v>Парцелляция</v>
+      </c>
+      <c r="R76" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),880.0)</f>
+        <v>880</v>
+      </c>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
@@ -5622,12 +4467,12 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание постфиксов -то, -либо, -нибудь и приставки кое-")</f>
-        <v>Правописание постфиксов -то, -либо, -нибудь и приставки кое-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словом, которое без НЕ не употребляется")</f>
+        <v>Написание НЕ со словом, которое без НЕ не употребляется</v>
       </c>
       <c r="B77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
-        <v>76</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1115.0)</f>
+        <v>1115</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -5639,18 +4484,18 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="M77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с неопределенными местоимениями")</f>
-        <v>Написание НЕ с неопределенными местоимениями</v>
-      </c>
-      <c r="N77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),676.0)</f>
-        <v>676</v>
-      </c>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
+      <c r="Q77" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Антитеза")</f>
+        <v>Антитеза</v>
+      </c>
+      <c r="R77" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),881.0)</f>
+        <v>881</v>
+      </c>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
@@ -5662,12 +4507,12 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дефисное написание наречий")</f>
-        <v>Дефисное написание наречий</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словом, у которого есть синоним без НЕ")</f>
+        <v>Написание НЕ со словом, у которого есть синоним без НЕ</v>
       </c>
       <c r="B78" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
-        <v>77</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1116.0)</f>
+        <v>1116</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -5679,18 +4524,18 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с отрицательными наречиями")</f>
-        <v>Написание НЕ с отрицательными наречиями</v>
-      </c>
-      <c r="N78" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),677.0)</f>
-        <v>677</v>
-      </c>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
+      <c r="Q78" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синтаксический параллелизм")</f>
+        <v>Синтаксический параллелизм</v>
+      </c>
+      <c r="R78" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),882.0)</f>
+        <v>882</v>
+      </c>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
@@ -5702,12 +4547,12 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- в суффиксах прилагательных -ИН-/-АН-/-ЯН-")</f>
-        <v>Правописание -Н- и -НН- в суффиксах прилагательных -ИН-/-АН-/-ЯН-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с полными одиночными причастиями")</f>
+        <v>Написание НЕ с полными одиночными причастиями</v>
       </c>
       <c r="B79" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),78.0)</f>
-        <v>78</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1117.0)</f>
+        <v>1117</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -5719,18 +4564,18 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="M79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словом при противопоставлении с союзом НО")</f>
-        <v>Написание НЕ со словом при противопоставлении с союзом НО</v>
-      </c>
-      <c r="N79" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),678.0)</f>
-        <v>678</v>
-      </c>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
+      <c r="Q79" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цитирование")</f>
+        <v>Цитирование</v>
+      </c>
+      <c r="R79" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),883.0)</f>
+        <v>883</v>
+      </c>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
@@ -5742,12 +4587,12 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- в суффиксах прилагательных -ЕНН-/-ОНН-")</f>
-        <v>Правописание -Н- и -НН- в суффиксах прилагательных -ЕНН-/-ОНН-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словами с наречиями меры и степени")</f>
+        <v>Написание НЕ со словами с наречиями меры и степени</v>
       </c>
       <c r="B80" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),79.0)</f>
-        <v>79</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1118.0)</f>
+        <v>1118</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -5759,18 +4604,18 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с производным предлогом")</f>
-        <v>Написание НЕ с производным предлогом</v>
-      </c>
-      <c r="N80" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),679.0)</f>
-        <v>679</v>
-      </c>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
+      <c r="Q80" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Диалог")</f>
+        <v>Диалог</v>
+      </c>
+      <c r="R80" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),884.0)</f>
+        <v>884</v>
+      </c>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
@@ -5782,12 +4627,12 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- в суффиксах прилагательных на стыке морфем")</f>
-        <v>Правописание -Н- и -НН- в суффиксах прилагательных на стыке морфем</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с неопределенными местоимениями")</f>
+        <v>Написание НЕ с неопределенными местоимениями</v>
       </c>
       <c r="B81" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
-        <v>80</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1119.0)</f>
+        <v>1119</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -5799,18 +4644,18 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-      <c r="M81" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словами через дефис")</f>
-        <v>Написание НЕ со словами через дефис</v>
-      </c>
-      <c r="N81" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),680.0)</f>
-        <v>680</v>
-      </c>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
+      <c r="Q81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Монолог")</f>
+        <v>Монолог</v>
+      </c>
+      <c r="R81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),885.0)</f>
+        <v>885</v>
+      </c>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
@@ -5822,12 +4667,12 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- в суффиксах прилагательных, образованных от разносклоняемых существительных")</f>
-        <v>Правописание -Н- и -НН- в суффиксах прилагательных, образованных от разносклоняемых существительных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с отрицательными наречиями")</f>
+        <v>Написание НЕ с отрицательными наречиями</v>
       </c>
       <c r="B82" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
-        <v>81</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1120.0)</f>
+        <v>1120</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -5839,18 +4684,18 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словом при противопоставлении с союзом А")</f>
-        <v>Написание НЕ со словом при противопоставлении с союзом А</v>
-      </c>
-      <c r="N82" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),681.0)</f>
-        <v>681</v>
-      </c>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
+      <c r="Q82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексический повтор как средство связи")</f>
+        <v>Лексический повтор как средство связи</v>
+      </c>
+      <c r="R82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),886.0)</f>
+        <v>886</v>
+      </c>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
@@ -5862,12 +4707,12 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- в отглагольных прилагательных и причастиях")</f>
-        <v>Правописание -Н- и -НН- в отглагольных прилагательных и причастиях</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словом при противопоставлении с союзом НО")</f>
+        <v>Написание НЕ со словом при противопоставлении с союзом НО</v>
       </c>
       <c r="B83" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
-        <v>82</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1121.0)</f>
+        <v>1121</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -5879,18 +4724,18 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
-      <c r="M83" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с кратким прилагательными, которые не имеют полную форму")</f>
-        <v>Написание НЕ с кратким прилагательными, которые не имеют полную форму</v>
-      </c>
-      <c r="N83" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),682.0)</f>
-        <v>682</v>
-      </c>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
+      <c r="Q83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вводные слова как средство связи")</f>
+        <v>Вводные слова как средство связи</v>
+      </c>
+      <c r="R83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),887.0)</f>
+        <v>887</v>
+      </c>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
@@ -5902,12 +4747,12 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- в кратких прилагательных и наречиях")</f>
-        <v>Правописание -Н- и -НН- в кратких прилагательных и наречиях</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с производным предлогом")</f>
+        <v>Написание НЕ с производным предлогом</v>
       </c>
       <c r="B84" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
-        <v>83</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1122.0)</f>
+        <v>1122</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -5919,18 +4764,18 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-      <c r="M84" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словами, усиливающими отрицание")</f>
-        <v>Написание НЕ со словами, усиливающими отрицание</v>
-      </c>
-      <c r="N84" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),683.0)</f>
-        <v>683</v>
-      </c>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
+      <c r="Q84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формы слова как средство связи")</f>
+        <v>Формы слова как средство связи</v>
+      </c>
+      <c r="R84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),888.0)</f>
+        <v>888</v>
+      </c>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
@@ -5942,12 +4787,12 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- в существительных")</f>
-        <v>Правописание -Н- и -НН- в существительных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словами через дефис")</f>
+        <v>Написание НЕ со словами через дефис</v>
       </c>
       <c r="B85" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
-        <v>84</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1123.0)</f>
+        <v>1123</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -5959,18 +4804,18 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-      <c r="M85" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с глаголами, деепричастиями, наречиями не на -о и -е, краткими причастиями, числительными, союзами, частицами и предлогами")</f>
-        <v>Написание НЕ с глаголами, деепричастиями, наречиями не на -о и -е, краткими причастиями, числительными, союзами, частицами и предлогами</v>
-      </c>
-      <c r="N85" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),684.0)</f>
-        <v>684</v>
-      </c>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
+      <c r="Q85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Однокоренные слова как средство связи")</f>
+        <v>Однокоренные слова как средство связи</v>
+      </c>
+      <c r="R85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),889.0)</f>
+        <v>889</v>
+      </c>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
@@ -5982,12 +4827,12 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Употребление гласных букв А/Я, У/Ю после шипящих и Ц")</f>
-        <v>Употребление гласных букв А/Я, У/Ю после шипящих и Ц</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словом при противопоставлении с союзом А")</f>
+        <v>Написание НЕ со словом при противопоставлении с союзом А</v>
       </c>
       <c r="B86" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
-        <v>85</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1124.0)</f>
+        <v>1124</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -5999,18 +4844,18 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-      <c r="M86" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с причастиями с зависимыми словами")</f>
-        <v>Написание НЕ с причастиями с зависимыми словами</v>
-      </c>
-      <c r="N86" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),685.0)</f>
-        <v>685</v>
-      </c>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
+      <c r="Q86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Личные местоимения как средство связи")</f>
+        <v>Личные местоимения как средство связи</v>
+      </c>
+      <c r="R86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),890.0)</f>
+        <v>890</v>
+      </c>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
@@ -6022,12 +4867,12 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Употребление гласных букв И/Ы в корнях, суффиксах и окончаниях после Ц")</f>
-        <v>Употребление гласных букв И/Ы в корнях, суффиксах и окончаниях после Ц</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с кратким прилагательными, которые не имеют полную форму")</f>
+        <v>Написание НЕ с кратким прилагательными, которые не имеют полную форму</v>
       </c>
       <c r="B87" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),86.0)</f>
-        <v>86</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1125.0)</f>
+        <v>1125</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -6039,18 +4884,18 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
-      <c r="M87" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словами в сравнительной степени")</f>
-        <v>Написание НЕ со словами в сравнительной степени</v>
-      </c>
-      <c r="N87" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),686.0)</f>
-        <v>686</v>
-      </c>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
+      <c r="Q87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Притяжательные местоимения как средство связи")</f>
+        <v>Притяжательные местоимения как средство связи</v>
+      </c>
+      <c r="R87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),891.0)</f>
+        <v>891</v>
+      </c>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
@@ -6062,12 +4907,12 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Употребление гласных букв О/Е (Ё) после шипящих и Ц в корне")</f>
-        <v>Употребление гласных букв О/Е (Ё) после шипящих и Ц в корне</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словами, усиливающими отрицание")</f>
+        <v>Написание НЕ со словами, усиливающими отрицание</v>
       </c>
       <c r="B88" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),87.0)</f>
-        <v>87</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1126.0)</f>
+        <v>1126</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -6079,18 +4924,18 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
-      <c r="M88" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с относительными прилагательными")</f>
-        <v>Написание НЕ с относительными прилагательными</v>
-      </c>
-      <c r="N88" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),687.0)</f>
-        <v>687</v>
-      </c>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
+      <c r="Q88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Указательные местоимения как средство связи")</f>
+        <v>Указательные местоимения как средство связи</v>
+      </c>
+      <c r="R88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),892.0)</f>
+        <v>892</v>
+      </c>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
@@ -6102,12 +4947,12 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Употребление гласных букв О/Е (Ё) после шипящих и Ц в окончании")</f>
-        <v>Употребление гласных букв О/Е (Ё) после шипящих и Ц в окончании</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с глаголами, деепричастиями, наречиями не на -о и -е, краткими причастиями, числительными, союзами, частицами и предлогами")</f>
+        <v>Написание НЕ с глаголами, деепричастиями, наречиями не на -о и -е, краткими причастиями, числительными, союзами, частицами и предлогами</v>
       </c>
       <c r="B89" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
-        <v>88</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1127.0)</f>
+        <v>1127</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -6119,18 +4964,18 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
-      <c r="M89" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с наречиями в безличных предложениях")</f>
-        <v>Написание НЕ с наречиями в безличных предложениях</v>
-      </c>
-      <c r="N89" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),688.0)</f>
-        <v>688</v>
-      </c>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
+      <c r="Q89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определительные местоимения как средство связи")</f>
+        <v>Определительные местоимения как средство связи</v>
+      </c>
+      <c r="R89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),893.0)</f>
+        <v>893</v>
+      </c>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
@@ -6142,12 +4987,12 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание окончаний существительных")</f>
-        <v>Правописание окончаний существительных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с причастиями с зависимыми словами")</f>
+        <v>Написание НЕ с причастиями с зависимыми словами</v>
       </c>
       <c r="B90" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
-        <v>89</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1128.0)</f>
+        <v>1128</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -6159,18 +5004,18 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-      <c r="M90" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с неопределенными местоимениями с предлогом")</f>
-        <v>Написание НЕ с неопределенными местоимениями с предлогом</v>
-      </c>
-      <c r="N90" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),689.0)</f>
-        <v>689</v>
-      </c>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
+      <c r="Q90" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Союз как средство связи")</f>
+        <v>Союз как средство связи</v>
+      </c>
+      <c r="R90" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),894.0)</f>
+        <v>894</v>
+      </c>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
@@ -6182,12 +5027,12 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ь на конце слов после шипящих")</f>
-        <v>Ь на конце слов после шипящих</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словами в сравнительной степени")</f>
+        <v>Написание НЕ со словами в сравнительной степени</v>
       </c>
       <c r="B91" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
-        <v>90</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1129.0)</f>
+        <v>1129</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -6199,18 +5044,18 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
-      <c r="M91" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ в вопросительных предложениях")</f>
-        <v>Написание НЕ в вопросительных предложениях</v>
-      </c>
-      <c r="N91" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),690.0)</f>
-        <v>690</v>
-      </c>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
+      <c r="Q91" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Частицы как средство связи")</f>
+        <v>Частицы как средство связи</v>
+      </c>
+      <c r="R91" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),895.0)</f>
+        <v>895</v>
+      </c>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
@@ -6222,12 +5067,12 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание гласных после шипящих и Ц в корнях слов")</f>
-        <v>Правописание гласных после шипящих и Ц в корнях слов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с относительными прилагательными")</f>
+        <v>Написание НЕ с относительными прилагательными</v>
       </c>
       <c r="B92" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
-        <v>91</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1130.0)</f>
+        <v>1130</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -6239,18 +5084,18 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
-      <c r="M92" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НИ в отрицательных местоимениях и наречиях")</f>
-        <v>Написание НИ в отрицательных местоимениях и наречиях</v>
-      </c>
-      <c r="N92" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),691.0)</f>
-        <v>691</v>
-      </c>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
+      <c r="Q92" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулировки, обозначающие смысловые отношения между предложениями")</f>
+        <v>Формулировки, обозначающие смысловые отношения между предложениями</v>
+      </c>
+      <c r="R92" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),896.0)</f>
+        <v>896</v>
+      </c>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
@@ -6262,12 +5107,12 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание Ь для обозначения мягкости предшествующего согласного")</f>
-        <v>Правописание Ь для обозначения мягкости предшествующего согласного</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с наречиями в безличных предложениях")</f>
+        <v>Написание НЕ с наречиями в безличных предложениях</v>
       </c>
       <c r="B93" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
-        <v>92</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1131.0)</f>
+        <v>1131</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -6279,14 +5124,8 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
-      <c r="M93" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НИ со словом, которое без НИ не употребляется")</f>
-        <v>Написание НИ со словом, которое без НИ не употребляется</v>
-      </c>
-      <c r="N93" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),692.0)</f>
-        <v>692</v>
-      </c>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -6302,12 +5141,12 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ь в сочетаниях согласных")</f>
-        <v>Ь в сочетаниях согласных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с неопределенными местоимениями с предлогом")</f>
+        <v>Написание НЕ с неопределенными местоимениями с предлогом</v>
       </c>
       <c r="B94" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
-        <v>93</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1132.0)</f>
+        <v>1132</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -6319,14 +5158,8 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
-      <c r="M94" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НИ с местоимениями с предлогом")</f>
-        <v>Написание НИ с местоимениями с предлогом</v>
-      </c>
-      <c r="N94" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),693.0)</f>
-        <v>693</v>
-      </c>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -6342,12 +5175,12 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ь в инфинитиве глагола")</f>
-        <v>Ь в инфинитиве глагола</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ в вопросительных предложениях")</f>
+        <v>Написание НЕ в вопросительных предложениях</v>
       </c>
       <c r="B95" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
-        <v>94</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1133.0)</f>
+        <v>1133</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -6359,14 +5192,8 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
-      <c r="M95" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Раздельное написание НИ")</f>
-        <v>Раздельное написание НИ</v>
-      </c>
-      <c r="N95" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),694.0)</f>
-        <v>694</v>
-      </c>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -6382,12 +5209,12 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание Ь в глаголах повелительного наклонения")</f>
-        <v>Правописание Ь в глаголах повелительного наклонения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Раздельное написание НИ")</f>
+        <v>Раздельное написание НИ</v>
       </c>
       <c r="B96" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
-        <v>95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1134.0)</f>
+        <v>1134</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -6399,14 +5226,8 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
-      <c r="M96" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слитное и раздельное написание производных предлогов")</f>
-        <v>Слитное и раздельное написание производных предлогов</v>
-      </c>
-      <c r="N96" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),695.0)</f>
-        <v>695</v>
-      </c>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -6422,12 +5243,12 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правопсиание сложных существительных")</f>
-        <v>Правопсиание сложных существительных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дефисное написание")</f>
+        <v>Дефисное написание</v>
       </c>
       <c r="B97" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),96.0)</f>
-        <v>96</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1135.0)</f>
+        <v>1135</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -6439,14 +5260,8 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-      <c r="M97" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дефисное написание")</f>
-        <v>Дефисное написание</v>
-      </c>
-      <c r="N97" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),696.0)</f>
-        <v>696</v>
-      </c>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -6462,12 +5277,12 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание сложных прилагательных")</f>
-        <v>Правописание сложных прилагательных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- в притяжательных прилагательных")</f>
+        <v>Правописание -Н- в притяжательных прилагательных</v>
       </c>
       <c r="B98" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
-        <v>97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1136.0)</f>
+        <v>1136</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -6479,14 +5294,8 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
-      <c r="M98" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- в суффиксах кратких отымённых прилагательных")</f>
-        <v>Правописание -Н- и -НН- в суффиксах кратких отымённых прилагательных</v>
-      </c>
-      <c r="N98" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),697.0)</f>
-        <v>697</v>
-      </c>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -6502,12 +5311,12 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание слов с соединительными гласными -О-/-Е-")</f>
-        <v>Правописание слов с соединительными гласными -О-/-Е-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -НН- в отымённых прилагательных, которые образованы от существительных на -мя")</f>
+        <v>Правописание -НН- в отымённых прилагательных, которые образованы от существительных на -мя</v>
       </c>
       <c r="B99" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
-        <v>98</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1137.0)</f>
+        <v>1137</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -6519,14 +5328,8 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
-      <c r="M99" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- в притяжательных прилагательных")</f>
-        <v>Правописание -Н- в притяжательных прилагательных</v>
-      </c>
-      <c r="N99" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),698.0)</f>
-        <v>698</v>
-      </c>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -6542,12 +5345,12 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слитное и раздельное написание вводных слов, существительных, местоимений, прилагательных, числительных и омонимичных конструкций")</f>
-        <v>Слитное и раздельное написание вводных слов, существительных, местоимений, прилагательных, числительных и омонимичных конструкций</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение спряжения глагола")</f>
+        <v>Определение спряжения глагола</v>
       </c>
       <c r="B100" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99.0)</f>
-        <v>99</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1139.0)</f>
+        <v>1139</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -6559,14 +5362,8 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
-      <c r="M100" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -НН- в отымённых прилагательных, которые образованы от существительных на -мя")</f>
-        <v>Правописание -НН- в отымённых прилагательных, которые образованы от существительных на -мя</v>
-      </c>
-      <c r="N100" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),699.0)</f>
-        <v>699</v>
-      </c>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
@@ -6582,12 +5379,12 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слова с приставками ПРЕ- и ПРИ- для запоминания")</f>
-        <v>Слова с приставками ПРЕ- и ПРИ- для запоминания</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слитное написание НИ")</f>
+        <v>Слитное написание НИ</v>
       </c>
       <c r="B101" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1201.0)</f>
-        <v>1201</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1140.0)</f>
+        <v>1140</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -6616,12 +5413,12 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение спряжения глагола")</f>
-        <v>Определение спряжения глагола</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- в суффиксах кратких отымённых прилагательных")</f>
+        <v>Правописание -Н- и -НН- в суффиксах кратких отымённых прилагательных</v>
       </c>
       <c r="B102" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1202.0)</f>
-        <v>1202</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1141.0)</f>
+        <v>1141</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -6650,12 +5447,12 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слитное написание НИ")</f>
-        <v>Слитное написание НИ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- в кратких причастиях")</f>
+        <v>Правописание -Н- в кратких причастиях</v>
       </c>
       <c r="B103" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1203.0)</f>
-        <v>1203</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1142.0)</f>
+        <v>1142</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -6684,12 +5481,12 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- в суффиксах кратких отымённых прилагательных")</f>
-        <v>Правописание -Н- и -НН- в суффиксах кратких отымённых прилагательных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание согласных в корне слова")</f>
+        <v>Правописание согласных в корне слова</v>
       </c>
       <c r="B104" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1204.0)</f>
-        <v>1204</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1143.0)</f>
+        <v>1143</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -6718,12 +5515,12 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- в кратких причастиях")</f>
-        <v>Правописание -Н- в кратких причастиях</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Раздельное написание НИ")</f>
+        <v>Раздельное написание НИ</v>
       </c>
       <c r="B105" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1205.0)</f>
-        <v>1205</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1144.0)</f>
+        <v>1144</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -6751,8 +5548,14 @@
       <c r="Z105" s="1"/>
     </row>
     <row r="106">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="A106" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание гласной после шипящих в корне")</f>
+        <v>Правописание гласной после шипящих в корне</v>
+      </c>
+      <c r="B106" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1145.0)</f>
+        <v>1145</v>
+      </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -6779,8 +5582,14 @@
       <c r="Z106" s="1"/>
     </row>
     <row r="107">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="A107" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласные после Ц в корне")</f>
+        <v>Гласные после Ц в корне</v>
+      </c>
+      <c r="B107" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1146.0)</f>
+        <v>1146</v>
+      </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -6807,8 +5616,14 @@
       <c r="Z107" s="1"/>
     </row>
     <row r="108">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="A108" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание гласной после шипящих в корне")</f>
+        <v>Правописание гласной после шипящих в корне</v>
+      </c>
+      <c r="B108" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1147.0)</f>
+        <v>1147</v>
+      </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -6835,8 +5650,14 @@
       <c r="Z108" s="1"/>
     </row>
     <row r="109">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="A109" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласные после Ц в корне")</f>
+        <v>Гласные после Ц в корне</v>
+      </c>
+      <c r="B109" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1148.0)</f>
+        <v>1148</v>
+      </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -6863,8 +5684,14 @@
       <c r="Z109" s="1"/>
     </row>
     <row r="110">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="A110" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание гласной после шипящих в корне")</f>
+        <v>Правописание гласной после шипящих в корне</v>
+      </c>
+      <c r="B110" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1149.0)</f>
+        <v>1149</v>
+      </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -6891,8 +5718,14 @@
       <c r="Z110" s="1"/>
     </row>
     <row r="111">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="A111" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласные после Ц в корне")</f>
+        <v>Гласные после Ц в корне</v>
+      </c>
+      <c r="B111" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1150.0)</f>
+        <v>1150</v>
+      </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -6919,8 +5752,14 @@
       <c r="Z111" s="1"/>
     </row>
     <row r="112">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="A112" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы глаголов -ОВА(ЕВА)-/-ЫВА(ИВА)-")</f>
+        <v>Суффиксы глаголов -ОВА(ЕВА)-/-ЫВА(ИВА)-</v>
+      </c>
+      <c r="B112" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1151.0)</f>
+        <v>1151</v>
+      </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -6947,8 +5786,14 @@
       <c r="Z112" s="1"/>
     </row>
     <row r="113">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="A113" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание суффикса глаголов перед ударным -ВА-")</f>
+        <v>Правописание суффикса глаголов перед ударным -ВА-</v>
+      </c>
+      <c r="B113" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1152.0)</f>
+        <v>1152</v>
+      </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -6975,8 +5820,14 @@
       <c r="Z113" s="1"/>
     </row>
     <row r="114">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="A114" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ЧИВ-/-ЛИВ")</f>
+        <v>Суффиксы прилагательных -ЧИВ-/-ЛИВ</v>
+      </c>
+      <c r="B114" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1153.0)</f>
+        <v>1153</v>
+      </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -7003,8 +5854,14 @@
       <c r="Z114" s="1"/>
     </row>
     <row r="115">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="A115" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффикс прилагательных -ИСТ-")</f>
+        <v>Суффикс прилагательных -ИСТ-</v>
+      </c>
+      <c r="B115" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1154.0)</f>
+        <v>1154</v>
+      </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -7031,8 +5888,14 @@
       <c r="Z115" s="1"/>
     </row>
     <row r="116">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="A116" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффикс прилагательных -ЕСК-")</f>
+        <v>Суффикс прилагательных -ЕСК-</v>
+      </c>
+      <c r="B116" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1155.0)</f>
+        <v>1155</v>
+      </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -7059,8 +5922,14 @@
       <c r="Z116" s="1"/>
     </row>
     <row r="117">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+      <c r="A117" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ЕНСК-/-ИНСК-")</f>
+        <v>Суффиксы прилагательных -ЕНСК-/-ИНСК-</v>
+      </c>
+      <c r="B117" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1156.0)</f>
+        <v>1156</v>
+      </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -7087,8 +5956,14 @@
       <c r="Z117" s="1"/>
     </row>
     <row r="118">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="A118" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -НН- в кратких отглагольных прилагательных")</f>
+        <v>Правописание -НН- в кратких отглагольных прилагательных</v>
+      </c>
+      <c r="B118" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1157.0)</f>
+        <v>1157</v>
+      </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -7115,8 +5990,14 @@
       <c r="Z118" s="1"/>
     </row>
     <row r="119">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="A119" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- наречиях")</f>
+        <v>Правописание -Н- и -НН- наречиях</v>
+      </c>
+      <c r="B119" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1158.0)</f>
+        <v>1158</v>
+      </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -7143,8 +6024,14 @@
       <c r="Z119" s="1"/>
     </row>
     <row r="120">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+      <c r="A120" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание безударных проверяемых гласных в корне слова")</f>
+        <v>Правописание безударных проверяемых гласных в корне слова</v>
+      </c>
+      <c r="B120" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1159.0)</f>
+        <v>1159</v>
+      </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
